--- a/Groceries Analysis.xlsx
+++ b/Groceries Analysis.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17098c5f813f529f/UNTHSC and Beyond/Work/Excel ^0 Analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17098c5f813f529f/UNTHSC and Beyond/Work/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4840" documentId="8_{8FF44B6A-93BD-487A-9BED-D1442CBF9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089D995D-41C3-4F96-B82B-8C8440B28E17}"/>
+  <xr:revisionPtr revIDLastSave="5087" documentId="8_{8FF44B6A-93BD-487A-9BED-D1442CBF9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5524BC7C-DAD7-409F-B548-61F7B876FF63}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F0151F15-CD19-40C3-B933-81F1DA960A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="18" r:id="rId1"/>
-    <sheet name="Base" sheetId="16" state="hidden" r:id="rId2"/>
-    <sheet name="Pro" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Carbs" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="Veg" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="Food items" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="Fruits" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Base" sheetId="16" r:id="rId2"/>
+    <sheet name="Pro" sheetId="4" r:id="rId3"/>
+    <sheet name="Carbs" sheetId="5" r:id="rId4"/>
+    <sheet name="Veg" sheetId="6" r:id="rId5"/>
+    <sheet name="Food items" sheetId="8" r:id="rId6"/>
+    <sheet name="Fruits" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Base!$B$1:$E$299</definedName>
@@ -32,7 +32,7 @@
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
     <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="27" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -598,11 +598,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +656,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -689,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -700,24 +715,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -911,10 +935,253 @@
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Slicer Style 1" pivot="0" table="0" count="5" xr9:uid="{480E36EA-0770-45EF-807B-8AF65EA5E923}">
+      <tableStyleElement type="wholeTable" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="25">
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="26"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="26"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="5"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="26"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="28"/>
+          </font>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="Slicer Style 1">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -1399,37 +1666,37 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>Wheat flour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sweet Potatoes - Frozen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bread</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Basmati Rice</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wheat Spag</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sweet Potatoes</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Long Grain Rice</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oat</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>Brown Rice</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wheat flour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Basmati Rice</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Wheat Spag</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bread</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Corn - Frozen</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Irish Potatoes</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweet Potatoes - Frozen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sweet Potatoes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1462,13 +1729,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -1518,37 +1785,37 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>Wheat flour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sweet Potatoes - Frozen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bread</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Basmati Rice</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wheat Spag</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sweet Potatoes</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Long Grain Rice</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oat</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>Brown Rice</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wheat flour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Basmati Rice</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Wheat Spag</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bread</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Corn - Frozen</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Irish Potatoes</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweet Potatoes - Frozen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sweet Potatoes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1581,13 +1848,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -2334,18 +2601,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2374,19 +2641,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>423545</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>434785</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>223806</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Class 4">
@@ -2409,7 +2676,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2419,8 +2686,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9464675" y="31749"/>
-              <a:ext cx="1817370" cy="2428876"/>
+              <a:off x="1746250" y="889000"/>
+              <a:ext cx="5927535" cy="2255806"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2452,19 +2719,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>279398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>410844</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350521</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Rank Category">
@@ -2487,7 +2754,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2497,8 +2764,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9461500" y="2454273"/>
-              <a:ext cx="1807844" cy="3705227"/>
+              <a:off x="1666875" y="3994148"/>
+              <a:ext cx="5922646" cy="3260728"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2905,7 +3172,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Enefe" refreshedDate="44742.357630555554" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="298" xr:uid="{5B471FF2-1C66-49FC-9F8A-23181D805612}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Enefe" refreshedDate="44815.522879976852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="298" xr:uid="{5B471FF2-1C66-49FC-9F8A-23181D805612}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:F299" sheet="Base"/>
   </cacheSource>
@@ -7544,7 +7811,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{679779B0-24FE-47BF-B9D9-A0FF4D9F6204}" name="PivotTable14" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{679779B0-24FE-47BF-B9D9-A0FF4D9F6204}" name="PivotTable14" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="H6:J18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField name="Rank" axis="axisRow" showAll="0" sortType="descending">
@@ -7638,8 +7905,8 @@
     </pivotField>
     <pivotField multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
-        <item x="0"/>
-        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
@@ -7695,16 +7962,13 @@
   </rowFields>
   <rowItems count="12">
     <i>
-      <x v="35"/>
+      <x v="63"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="59"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="63"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="2"/>
@@ -7713,19 +7977,22 @@
       <x v="64"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i>
       <x v="23"/>
     </i>
     <i>
       <x v="32"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="58"/>
     </i>
     <i t="grand">
       <x/>
@@ -7970,7 +8237,7 @@
     <dataField name="Average Calories" fld="8" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="31">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8151,7 +8418,7 @@
     <dataField name="Average Calories" fld="8" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="30">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8404,7 +8671,7 @@
     <dataField name="Average Calories" fld="7" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="29">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8565,19 +8832,19 @@
     <dataField name="Average of Calories" fld="7" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="6">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="18">
@@ -8603,10 +8870,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8779,19 +9046,19 @@
     <dataField name="Average of Calories" fld="7" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="13">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="19">
@@ -8818,10 +9085,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8994,19 +9261,19 @@
     <dataField name="Average of Weight Cost " fld="4" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="20">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="19">
@@ -9033,10 +9300,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9197,19 +9464,19 @@
     <dataField name="Average of Weight Cost " fld="4" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="27">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="25">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="18">
@@ -9235,10 +9502,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9409,7 +9676,7 @@
     <dataField name="Average of Calories" fld="7" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="28">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9439,6 +9706,11 @@
       </items>
     </tabular>
   </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
@@ -9450,21 +9722,26 @@
   <data>
     <tabular pivotCacheId="174304466">
       <items count="5">
-        <i x="0" s="1"/>
-        <i x="1"/>
+        <i x="0"/>
+        <i x="1" s="1"/>
         <i x="2"/>
         <i x="3"/>
         <i x="4"/>
       </items>
     </tabular>
   </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Class 4" xr10:uid="{9D844CC4-479D-49B3-8997-1333DE03F375}" cache="Slicer_Class2" caption="Class" style="SlicerStyleDark2" rowHeight="640080"/>
-  <slicer name="Rank Category" xr10:uid="{DEEE2046-AF38-42DB-BF79-905EAD168578}" cache="Slicer_Rank_Category" caption="Rank Category" style="SlicerStyleDark2" rowHeight="640080"/>
+  <slicer name="Class 4" xr10:uid="{9D844CC4-479D-49B3-8997-1333DE03F375}" cache="Slicer_Class2" caption="Class" columnCount="2" showCaption="0" style="Slicer Style 1" rowHeight="1005840"/>
+  <slicer name="Rank Category" xr10:uid="{DEEE2046-AF38-42DB-BF79-905EAD168578}" cache="Slicer_Rank_Category" caption="Rank Category" columnCount="2" showCaption="0" style="Slicer Style 1" rowHeight="1005840"/>
 </slicers>
 </file>
 
@@ -9766,169 +10043,150 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2350B61B-8634-4327-98B4-22CF641B9E24}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="AK4:AY14"/>
+  <dimension ref="E4:AS14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AV44" sqref="AV44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="8.7265625" style="13"/>
-    <col min="14" max="14" width="8.7265625" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="7" width="8.7265625" style="8"/>
+    <col min="8" max="8" width="8.7265625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="4" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-    </row>
-    <row r="5" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-    </row>
-    <row r="6" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-    </row>
-    <row r="7" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AK7" s="17" t="s">
+    <row r="4" spans="5:45" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+    </row>
+    <row r="5" spans="5:45" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+    </row>
+    <row r="6" spans="5:45" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+    </row>
+    <row r="7" spans="5:45" ht="31" x14ac:dyDescent="0.7">
+      <c r="AI7" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-    </row>
-    <row r="8" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AK8" s="17" t="s">
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+    </row>
+    <row r="8" spans="5:45" ht="31" x14ac:dyDescent="0.7">
+      <c r="AI8" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-    </row>
-    <row r="9" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AK9" s="17" t="s">
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+    </row>
+    <row r="9" spans="5:45" ht="31" x14ac:dyDescent="0.7">
+      <c r="AI9" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-    </row>
-    <row r="10" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AK10" s="17" t="s">
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+    </row>
+    <row r="10" spans="5:45" ht="31" x14ac:dyDescent="0.7">
+      <c r="E10" s="16"/>
+      <c r="AI10" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-    </row>
-    <row r="11" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AK11" s="17" t="s">
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+    </row>
+    <row r="11" spans="5:45" ht="31" x14ac:dyDescent="0.7">
+      <c r="AI11" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="16"/>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="16"/>
-    </row>
-    <row r="12" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AK12" s="17" t="s">
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+    </row>
+    <row r="12" spans="5:45" ht="31" x14ac:dyDescent="0.7">
+      <c r="AI12" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-    </row>
-    <row r="13" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AK13" s="17" t="s">
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+    </row>
+    <row r="13" spans="5:45" ht="31" x14ac:dyDescent="0.7">
+      <c r="AI13" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-    </row>
-    <row r="14" spans="37:51" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="AK14" s="17" t="s">
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+    </row>
+    <row r="14" spans="5:45" ht="31" x14ac:dyDescent="0.7">
+      <c r="AI14" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9949,14 +10207,14 @@
   <dimension ref="B1:J299"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
@@ -10039,11 +10297,11 @@
       <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="17" t="str">
         <f>VLOOKUP(B2,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E2">
@@ -10059,11 +10317,11 @@
       <c r="B3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="17" t="str">
         <f>VLOOKUP(B3,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E3">
@@ -10079,11 +10337,11 @@
       <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="17" t="str">
         <f>VLOOKUP(B4,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E4">
@@ -10105,11 +10363,11 @@
       <c r="B5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="17" t="str">
         <f>VLOOKUP(B5,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E5">
@@ -10125,11 +10383,11 @@
       <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="17" t="str">
         <f>VLOOKUP(B6,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E6">
@@ -10154,11 +10412,11 @@
       <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="17" t="str">
         <f>VLOOKUP(B7,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E7">
@@ -10170,12 +10428,12 @@
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="8">
+        <v>84</v>
+      </c>
+      <c r="I7" s="14">
         <v>0</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="14">
         <v>11</v>
       </c>
     </row>
@@ -10183,11 +10441,11 @@
       <c r="B8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="17" t="str">
         <f>VLOOKUP(B8,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E8">
@@ -10199,12 +10457,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="8">
+        <v>146</v>
+      </c>
+      <c r="I8" s="14">
         <v>0.5</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="14">
         <v>10</v>
       </c>
     </row>
@@ -10212,11 +10470,11 @@
       <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="17" t="str">
         <f>VLOOKUP(B9,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E9">
@@ -10228,12 +10486,12 @@
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="8">
+        <v>82</v>
+      </c>
+      <c r="I9" s="14">
         <v>1</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="14">
         <v>9</v>
       </c>
     </row>
@@ -10241,11 +10499,11 @@
       <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="17" t="str">
         <f>VLOOKUP(B10,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E10">
@@ -10257,12 +10515,12 @@
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="8">
+        <v>89</v>
+      </c>
+      <c r="I10" s="14">
         <v>1.5</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="14">
         <v>8</v>
       </c>
     </row>
@@ -10270,11 +10528,11 @@
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="17" t="str">
         <f>VLOOKUP(B11,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E11">
@@ -10286,12 +10544,12 @@
         <v>1.5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="8">
+        <v>157</v>
+      </c>
+      <c r="I11" s="14">
         <v>2</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="14">
         <v>7</v>
       </c>
     </row>
@@ -10299,11 +10557,11 @@
       <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="17" t="str">
         <f>VLOOKUP(B12,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E12">
@@ -10315,12 +10573,12 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="8">
+        <v>81</v>
+      </c>
+      <c r="I12" s="14">
         <v>2.5</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="14">
         <v>6</v>
       </c>
     </row>
@@ -10328,11 +10586,11 @@
       <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="17" t="str">
         <f>VLOOKUP(B13,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E13">
@@ -10344,12 +10602,12 @@
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="8">
+        <v>53</v>
+      </c>
+      <c r="I13" s="14">
         <v>3</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="14">
         <v>5</v>
       </c>
     </row>
@@ -10357,11 +10615,11 @@
       <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="17" t="str">
         <f>VLOOKUP(B14,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E14">
@@ -10373,24 +10631,24 @@
         <v>3.5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="8">
+        <v>91</v>
+      </c>
+      <c r="I14" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="J14" s="14">
         <v>4</v>
-      </c>
-      <c r="J14" s="8">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="17" t="str">
         <f>VLOOKUP(B15,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E15">
@@ -10402,12 +10660,12 @@
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="8">
+        <v>90</v>
+      </c>
+      <c r="I15" s="14">
         <v>4</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="14">
         <v>3</v>
       </c>
     </row>
@@ -10415,11 +10673,11 @@
       <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="17" t="str">
         <f>VLOOKUP(B16,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E16">
@@ -10431,24 +10689,24 @@
         <v>3.5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="8">
-        <v>5</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="I16" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="J16" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="17" t="str">
         <f>VLOOKUP(B17,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E17">
@@ -10460,12 +10718,12 @@
         <v>4</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="8">
+        <v>63</v>
+      </c>
+      <c r="I17" s="14">
         <v>5</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="14">
         <v>1</v>
       </c>
     </row>
@@ -10473,11 +10731,11 @@
       <c r="B18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="17" t="str">
         <f>VLOOKUP(B18,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E18">
@@ -10491,22 +10749,22 @@
       <c r="H18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="8">
-        <v>28.5</v>
-      </c>
-      <c r="J18" s="8">
-        <v>64</v>
+      <c r="I18" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="J18" s="14">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="17" t="str">
         <f>VLOOKUP(B19,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E19">
@@ -10522,11 +10780,11 @@
       <c r="B20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="17" t="str">
         <f>VLOOKUP(B20,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E20">
@@ -10542,11 +10800,11 @@
       <c r="B21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="17" t="str">
         <f>VLOOKUP(B21,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E21">
@@ -10562,11 +10820,11 @@
       <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" s="17" t="str">
         <f>VLOOKUP(B22,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E22">
@@ -10582,11 +10840,11 @@
       <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C23" s="17" t="str">
         <f>VLOOKUP(B23,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E23">
@@ -10602,11 +10860,11 @@
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="17" t="str">
         <f>VLOOKUP(B24,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E24">
@@ -10622,11 +10880,11 @@
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" s="17" t="str">
         <f>VLOOKUP(B25,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E25">
@@ -10642,11 +10900,11 @@
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="C26" s="17" t="str">
         <f>VLOOKUP(B26,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E26">
@@ -10662,11 +10920,11 @@
       <c r="B27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C27" s="17" t="str">
         <f>VLOOKUP(B27,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E27">
@@ -10682,11 +10940,11 @@
       <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C28" s="17" t="str">
         <f>VLOOKUP(B28,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E28">
@@ -10702,11 +10960,11 @@
       <c r="B29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="17" t="str">
         <f>VLOOKUP(B29,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E29">
@@ -10722,11 +10980,11 @@
       <c r="B30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C30" s="17" t="str">
         <f>VLOOKUP(B30,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E30">
@@ -10742,11 +11000,11 @@
       <c r="B31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C31" s="17" t="str">
         <f>VLOOKUP(B31,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E31">
@@ -10762,11 +11020,11 @@
       <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" s="17" t="str">
         <f>VLOOKUP(B32,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E32">
@@ -10782,11 +11040,11 @@
       <c r="B33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="17" t="str">
         <f>VLOOKUP(B33,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E33">
@@ -10802,11 +11060,11 @@
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" s="17" t="str">
         <f>VLOOKUP(B34,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E34">
@@ -10822,11 +11080,11 @@
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="17" t="str">
         <f>VLOOKUP(B35,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E35">
@@ -10842,11 +11100,11 @@
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="17" t="str">
         <f>VLOOKUP(B36,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E36">
@@ -10862,11 +11120,11 @@
       <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="17" t="str">
         <f>VLOOKUP(B37,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E37">
@@ -10882,11 +11140,11 @@
       <c r="B38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="17" t="str">
         <f>VLOOKUP(B38,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E38">
@@ -10902,11 +11160,11 @@
       <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="17" t="str">
         <f>VLOOKUP(B39,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E39">
@@ -10922,11 +11180,11 @@
       <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" s="17" t="str">
         <f>VLOOKUP(B40,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E40">
@@ -10942,11 +11200,11 @@
       <c r="B41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C41" s="17" t="str">
         <f>VLOOKUP(B41,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E41">
@@ -10962,11 +11220,11 @@
       <c r="B42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="2" t="str">
+      <c r="C42" s="17" t="str">
         <f>VLOOKUP(B42,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E42">
@@ -10982,11 +11240,11 @@
       <c r="B43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="2" t="str">
+      <c r="C43" s="17" t="str">
         <f>VLOOKUP(B43,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E43">
@@ -11002,11 +11260,11 @@
       <c r="B44" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="2" t="str">
+      <c r="C44" s="17" t="str">
         <f>VLOOKUP(B44,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E44">
@@ -11022,11 +11280,11 @@
       <c r="B45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="2" t="str">
+      <c r="C45" s="17" t="str">
         <f>VLOOKUP(B45,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E45">
@@ -11042,11 +11300,11 @@
       <c r="B46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="2" t="str">
+      <c r="C46" s="17" t="str">
         <f>VLOOKUP(B46,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E46">
@@ -11062,11 +11320,11 @@
       <c r="B47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" s="17" t="str">
         <f>VLOOKUP(B47,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E47">
@@ -11082,11 +11340,11 @@
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="2" t="str">
+      <c r="C48" s="17" t="str">
         <f>VLOOKUP(B48,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E48">
@@ -11102,11 +11360,11 @@
       <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="2" t="str">
+      <c r="C49" s="17" t="str">
         <f>VLOOKUP(B49,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E49">
@@ -11122,11 +11380,11 @@
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C50" s="17" t="str">
         <f>VLOOKUP(B50,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E50">
@@ -11142,11 +11400,11 @@
       <c r="B51" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="2" t="str">
+      <c r="C51" s="17" t="str">
         <f>VLOOKUP(B51,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E51">
@@ -11162,11 +11420,11 @@
       <c r="B52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="2" t="str">
+      <c r="C52" s="17" t="str">
         <f>VLOOKUP(B52,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E52">
@@ -11182,11 +11440,11 @@
       <c r="B53" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="2" t="str">
+      <c r="C53" s="17" t="str">
         <f>VLOOKUP(B53,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E53">
@@ -11202,11 +11460,11 @@
       <c r="B54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="2" t="str">
+      <c r="C54" s="17" t="str">
         <f>VLOOKUP(B54,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E54">
@@ -11222,11 +11480,11 @@
       <c r="B55" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="2" t="str">
+      <c r="C55" s="17" t="str">
         <f>VLOOKUP(B55,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E55">
@@ -11242,11 +11500,11 @@
       <c r="B56" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="2" t="str">
+      <c r="C56" s="17" t="str">
         <f>VLOOKUP(B56,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E56">
@@ -11262,11 +11520,11 @@
       <c r="B57" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="2" t="str">
+      <c r="C57" s="17" t="str">
         <f>VLOOKUP(B57,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E57">
@@ -11282,11 +11540,11 @@
       <c r="B58" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="2" t="str">
+      <c r="C58" s="17" t="str">
         <f>VLOOKUP(B58,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E58">
@@ -11302,11 +11560,11 @@
       <c r="B59" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="2" t="str">
+      <c r="C59" s="17" t="str">
         <f>VLOOKUP(B59,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E59">
@@ -11322,11 +11580,11 @@
       <c r="B60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="2" t="str">
+      <c r="C60" s="17" t="str">
         <f>VLOOKUP(B60,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E60">
@@ -11342,11 +11600,11 @@
       <c r="B61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="2" t="str">
+      <c r="C61" s="17" t="str">
         <f>VLOOKUP(B61,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E61">
@@ -11362,11 +11620,11 @@
       <c r="B62" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="2" t="str">
+      <c r="C62" s="17" t="str">
         <f>VLOOKUP(B62,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E62">
@@ -11382,11 +11640,11 @@
       <c r="B63" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="2" t="str">
+      <c r="C63" s="17" t="str">
         <f>VLOOKUP(B63,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E63">
@@ -11402,11 +11660,11 @@
       <c r="B64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="2" t="str">
+      <c r="C64" s="17" t="str">
         <f>VLOOKUP(B64,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E64">
@@ -11422,11 +11680,11 @@
       <c r="B65" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="2" t="str">
+      <c r="C65" s="17" t="str">
         <f>VLOOKUP(B65,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E65">
@@ -11442,11 +11700,11 @@
       <c r="B66" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="2" t="str">
+      <c r="C66" s="17" t="str">
         <f>VLOOKUP(B66,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E66">
@@ -11462,11 +11720,11 @@
       <c r="B67" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="2" t="str">
+      <c r="C67" s="17" t="str">
         <f>VLOOKUP(B67,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E67">
@@ -11482,11 +11740,11 @@
       <c r="B68" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="2" t="str">
+      <c r="C68" s="17" t="str">
         <f>VLOOKUP(B68,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E68">
@@ -11502,11 +11760,11 @@
       <c r="B69" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="2" t="str">
+      <c r="C69" s="17" t="str">
         <f>VLOOKUP(B69,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E69">
@@ -11522,11 +11780,11 @@
       <c r="B70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="2" t="str">
+      <c r="C70" s="17" t="str">
         <f>VLOOKUP(B70,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E70">
@@ -11542,11 +11800,11 @@
       <c r="B71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="2" t="str">
+      <c r="C71" s="17" t="str">
         <f>VLOOKUP(B71,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E71">
@@ -11562,11 +11820,11 @@
       <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="2" t="str">
+      <c r="C72" s="17" t="str">
         <f>VLOOKUP(B72,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E72">
@@ -11582,11 +11840,11 @@
       <c r="B73" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="2" t="str">
+      <c r="C73" s="17" t="str">
         <f>VLOOKUP(B73,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E73">
@@ -11602,11 +11860,11 @@
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="2" t="str">
+      <c r="C74" s="17" t="str">
         <f>VLOOKUP(B74,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E74">
@@ -11622,11 +11880,11 @@
       <c r="B75" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="2" t="str">
+      <c r="C75" s="17" t="str">
         <f>VLOOKUP(B75,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E75">
@@ -11642,11 +11900,11 @@
       <c r="B76" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="2" t="str">
+      <c r="C76" s="17" t="str">
         <f>VLOOKUP(B76,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E76">
@@ -11662,11 +11920,11 @@
       <c r="B77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="2" t="str">
+      <c r="C77" s="17" t="str">
         <f>VLOOKUP(B77,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E77">
@@ -11682,11 +11940,11 @@
       <c r="B78" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="2" t="str">
+      <c r="C78" s="17" t="str">
         <f>VLOOKUP(B78,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E78">
@@ -11702,11 +11960,11 @@
       <c r="B79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="2" t="str">
+      <c r="C79" s="17" t="str">
         <f>VLOOKUP(B79,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E79">
@@ -11722,11 +11980,11 @@
       <c r="B80" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="2" t="str">
+      <c r="C80" s="17" t="str">
         <f>VLOOKUP(B80,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E80">
@@ -11742,11 +12000,11 @@
       <c r="B81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="2" t="str">
+      <c r="C81" s="17" t="str">
         <f>VLOOKUP(B81,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E81">
@@ -11762,11 +12020,11 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="2" t="str">
+      <c r="C82" s="17" t="str">
         <f>VLOOKUP(B82,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E82">
@@ -11782,11 +12040,11 @@
       <c r="B83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="2" t="str">
+      <c r="C83" s="17" t="str">
         <f>VLOOKUP(B83,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E83">
@@ -11802,11 +12060,11 @@
       <c r="B84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="2" t="str">
+      <c r="C84" s="17" t="str">
         <f>VLOOKUP(B84,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E84">
@@ -11822,11 +12080,11 @@
       <c r="B85" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="2" t="str">
+      <c r="C85" s="17" t="str">
         <f>VLOOKUP(B85,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E85">
@@ -11842,11 +12100,11 @@
       <c r="B86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="2" t="str">
+      <c r="C86" s="17" t="str">
         <f>VLOOKUP(B86,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E86">
@@ -11862,11 +12120,11 @@
       <c r="B87" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C87" s="2" t="str">
+      <c r="C87" s="17" t="str">
         <f>VLOOKUP(B87,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E87">
@@ -11882,11 +12140,11 @@
       <c r="B88" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="2" t="str">
+      <c r="C88" s="17" t="str">
         <f>VLOOKUP(B88,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E88">
@@ -11902,11 +12160,11 @@
       <c r="B89" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C89" s="2" t="str">
+      <c r="C89" s="17" t="str">
         <f>VLOOKUP(B89,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E89">
@@ -11922,11 +12180,11 @@
       <c r="B90" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C90" s="2" t="str">
+      <c r="C90" s="17" t="str">
         <f>VLOOKUP(B90,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E90">
@@ -11942,11 +12200,11 @@
       <c r="B91" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="2" t="str">
+      <c r="C91" s="17" t="str">
         <f>VLOOKUP(B91,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E91">
@@ -11962,11 +12220,11 @@
       <c r="B92" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="2" t="str">
+      <c r="C92" s="17" t="str">
         <f>VLOOKUP(B92,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E92">
@@ -11982,11 +12240,11 @@
       <c r="B93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="2" t="str">
+      <c r="C93" s="17" t="str">
         <f>VLOOKUP(B93,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E93">
@@ -12002,11 +12260,11 @@
       <c r="B94" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="2" t="str">
+      <c r="C94" s="17" t="str">
         <f>VLOOKUP(B94,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E94">
@@ -12022,11 +12280,11 @@
       <c r="B95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="2" t="str">
+      <c r="C95" s="17" t="str">
         <f>VLOOKUP(B95,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E95">
@@ -12042,11 +12300,11 @@
       <c r="B96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="2" t="str">
+      <c r="C96" s="17" t="str">
         <f>VLOOKUP(B96,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E96">
@@ -12062,11 +12320,11 @@
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C97" s="2" t="str">
+      <c r="C97" s="17" t="str">
         <f>VLOOKUP(B97,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E97">
@@ -12082,11 +12340,11 @@
       <c r="B98" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="2" t="str">
+      <c r="C98" s="17" t="str">
         <f>VLOOKUP(B98,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E98">
@@ -12102,11 +12360,11 @@
       <c r="B99" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C99" s="2" t="str">
+      <c r="C99" s="17" t="str">
         <f>VLOOKUP(B99,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E99">
@@ -12122,11 +12380,11 @@
       <c r="B100" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C100" s="2" t="str">
+      <c r="C100" s="17" t="str">
         <f>VLOOKUP(B100,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E100">
@@ -12142,11 +12400,11 @@
       <c r="B101" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="2" t="str">
+      <c r="C101" s="17" t="str">
         <f>VLOOKUP(B101,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E101">
@@ -12162,11 +12420,11 @@
       <c r="B102" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C102" s="2" t="str">
+      <c r="C102" s="17" t="str">
         <f>VLOOKUP(B102,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E102">
@@ -12182,11 +12440,11 @@
       <c r="B103" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C103" s="2" t="str">
+      <c r="C103" s="17" t="str">
         <f>VLOOKUP(B103,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E103">
@@ -12202,11 +12460,11 @@
       <c r="B104" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="2" t="str">
+      <c r="C104" s="17" t="str">
         <f>VLOOKUP(B104,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E104">
@@ -12222,11 +12480,11 @@
       <c r="B105" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="2" t="str">
+      <c r="C105" s="17" t="str">
         <f>VLOOKUP(B105,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E105">
@@ -12242,11 +12500,11 @@
       <c r="B106" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C106" s="2" t="str">
+      <c r="C106" s="17" t="str">
         <f>VLOOKUP(B106,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E106">
@@ -12262,11 +12520,11 @@
       <c r="B107" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C107" s="2" t="str">
+      <c r="C107" s="17" t="str">
         <f>VLOOKUP(B107,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E107">
@@ -12282,11 +12540,11 @@
       <c r="B108" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="2" t="str">
+      <c r="C108" s="17" t="str">
         <f>VLOOKUP(B108,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E108">
@@ -12302,11 +12560,11 @@
       <c r="B109" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C109" s="2" t="str">
+      <c r="C109" s="17" t="str">
         <f>VLOOKUP(B109,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E109">
@@ -12322,11 +12580,11 @@
       <c r="B110" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C110" s="2" t="str">
+      <c r="C110" s="17" t="str">
         <f>VLOOKUP(B110,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E110">
@@ -12342,11 +12600,11 @@
       <c r="B111" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="2" t="str">
+      <c r="C111" s="17" t="str">
         <f>VLOOKUP(B111,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E111">
@@ -12362,11 +12620,11 @@
       <c r="B112" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C112" s="2" t="str">
+      <c r="C112" s="17" t="str">
         <f>VLOOKUP(B112,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E112">
@@ -12382,11 +12640,11 @@
       <c r="B113" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C113" s="2" t="str">
+      <c r="C113" s="17" t="str">
         <f>VLOOKUP(B113,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E113">
@@ -12402,11 +12660,11 @@
       <c r="B114" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="2" t="str">
+      <c r="C114" s="17" t="str">
         <f>VLOOKUP(B114,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E114">
@@ -12422,11 +12680,11 @@
       <c r="B115" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C115" s="2" t="str">
+      <c r="C115" s="17" t="str">
         <f>VLOOKUP(B115,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E115">
@@ -12442,11 +12700,11 @@
       <c r="B116" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="2" t="str">
+      <c r="C116" s="17" t="str">
         <f>VLOOKUP(B116,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E116">
@@ -12462,11 +12720,11 @@
       <c r="B117" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C117" s="2" t="str">
+      <c r="C117" s="17" t="str">
         <f>VLOOKUP(B117,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E117">
@@ -12482,11 +12740,11 @@
       <c r="B118" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C118" s="2" t="str">
+      <c r="C118" s="17" t="str">
         <f>VLOOKUP(B118,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E118">
@@ -12502,11 +12760,11 @@
       <c r="B119" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C119" s="2" t="str">
+      <c r="C119" s="17" t="str">
         <f>VLOOKUP(B119,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E119">
@@ -12522,11 +12780,11 @@
       <c r="B120" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C120" s="2" t="str">
+      <c r="C120" s="17" t="str">
         <f>VLOOKUP(B120,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E120">
@@ -12542,11 +12800,11 @@
       <c r="B121" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C121" s="2" t="str">
+      <c r="C121" s="17" t="str">
         <f>VLOOKUP(B121,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E121">
@@ -12562,11 +12820,11 @@
       <c r="B122" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C122" s="2" t="str">
+      <c r="C122" s="17" t="str">
         <f>VLOOKUP(B122,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E122">
@@ -12582,11 +12840,11 @@
       <c r="B123" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C123" s="2" t="str">
+      <c r="C123" s="17" t="str">
         <f>VLOOKUP(B123,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E123">
@@ -12602,11 +12860,11 @@
       <c r="B124" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C124" s="2" t="str">
+      <c r="C124" s="17" t="str">
         <f>VLOOKUP(B124,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E124">
@@ -12622,11 +12880,11 @@
       <c r="B125" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C125" s="2" t="str">
+      <c r="C125" s="17" t="str">
         <f>VLOOKUP(B125,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E125">
@@ -12642,11 +12900,11 @@
       <c r="B126" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C126" s="2" t="str">
+      <c r="C126" s="17" t="str">
         <f>VLOOKUP(B126,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E126">
@@ -12662,11 +12920,11 @@
       <c r="B127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C127" s="2" t="str">
+      <c r="C127" s="17" t="str">
         <f>VLOOKUP(B127,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E127">
@@ -12682,11 +12940,11 @@
       <c r="B128" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C128" s="2" t="str">
+      <c r="C128" s="17" t="str">
         <f>VLOOKUP(B128,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E128">
@@ -12702,11 +12960,11 @@
       <c r="B129" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C129" s="2" t="str">
+      <c r="C129" s="17" t="str">
         <f>VLOOKUP(B129,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E129">
@@ -12722,11 +12980,11 @@
       <c r="B130" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C130" s="2" t="str">
+      <c r="C130" s="17" t="str">
         <f>VLOOKUP(B130,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E130">
@@ -12742,11 +13000,11 @@
       <c r="B131" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C131" s="2" t="str">
+      <c r="C131" s="17" t="str">
         <f>VLOOKUP(B131,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E131">
@@ -12762,11 +13020,11 @@
       <c r="B132" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C132" s="2" t="str">
+      <c r="C132" s="17" t="str">
         <f>VLOOKUP(B132,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E132">
@@ -12782,11 +13040,11 @@
       <c r="B133" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C133" s="2" t="str">
+      <c r="C133" s="17" t="str">
         <f>VLOOKUP(B133,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E133">
@@ -12802,11 +13060,11 @@
       <c r="B134" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="2" t="str">
+      <c r="C134" s="17" t="str">
         <f>VLOOKUP(B134,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E134">
@@ -12822,11 +13080,11 @@
       <c r="B135" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C135" s="2" t="str">
+      <c r="C135" s="17" t="str">
         <f>VLOOKUP(B135,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E135">
@@ -12842,11 +13100,11 @@
       <c r="B136" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C136" s="2" t="str">
+      <c r="C136" s="17" t="str">
         <f>VLOOKUP(B136,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E136">
@@ -12862,11 +13120,11 @@
       <c r="B137" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C137" s="2" t="str">
+      <c r="C137" s="17" t="str">
         <f>VLOOKUP(B137,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E137">
@@ -12882,11 +13140,11 @@
       <c r="B138" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C138" s="2" t="str">
+      <c r="C138" s="17" t="str">
         <f>VLOOKUP(B138,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E138">
@@ -12902,11 +13160,11 @@
       <c r="B139" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C139" s="2" t="str">
+      <c r="C139" s="17" t="str">
         <f>VLOOKUP(B139,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E139">
@@ -12922,11 +13180,11 @@
       <c r="B140" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C140" s="2" t="str">
+      <c r="C140" s="17" t="str">
         <f>VLOOKUP(B140,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E140">
@@ -12942,11 +13200,11 @@
       <c r="B141" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C141" s="2" t="str">
+      <c r="C141" s="17" t="str">
         <f>VLOOKUP(B141,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E141">
@@ -12962,11 +13220,11 @@
       <c r="B142" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C142" s="2" t="str">
+      <c r="C142" s="17" t="str">
         <f>VLOOKUP(B142,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E142">
@@ -12982,11 +13240,11 @@
       <c r="B143" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C143" s="2" t="str">
+      <c r="C143" s="17" t="str">
         <f>VLOOKUP(B143,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E143">
@@ -13002,11 +13260,11 @@
       <c r="B144" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C144" s="2" t="str">
+      <c r="C144" s="17" t="str">
         <f>VLOOKUP(B144,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E144">
@@ -13022,11 +13280,11 @@
       <c r="B145" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C145" s="2" t="str">
+      <c r="C145" s="17" t="str">
         <f>VLOOKUP(B145,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E145">
@@ -13042,11 +13300,11 @@
       <c r="B146" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C146" s="2" t="str">
+      <c r="C146" s="17" t="str">
         <f>VLOOKUP(B146,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E146">
@@ -13062,11 +13320,11 @@
       <c r="B147" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C147" s="2" t="str">
+      <c r="C147" s="17" t="str">
         <f>VLOOKUP(B147,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E147">
@@ -13082,11 +13340,11 @@
       <c r="B148" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C148" s="2" t="str">
+      <c r="C148" s="17" t="str">
         <f>VLOOKUP(B148,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E148">
@@ -13102,11 +13360,11 @@
       <c r="B149" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C149" s="2" t="str">
+      <c r="C149" s="17" t="str">
         <f>VLOOKUP(B149,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E149">
@@ -13122,11 +13380,11 @@
       <c r="B150" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C150" s="2" t="str">
+      <c r="C150" s="17" t="str">
         <f>VLOOKUP(B150,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E150">
@@ -13142,11 +13400,11 @@
       <c r="B151" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C151" s="2" t="str">
+      <c r="C151" s="17" t="str">
         <f>VLOOKUP(B151,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E151">
@@ -13162,11 +13420,11 @@
       <c r="B152" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C152" s="2" t="str">
+      <c r="C152" s="17" t="str">
         <f>VLOOKUP(B152,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E152">
@@ -13182,11 +13440,11 @@
       <c r="B153" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C153" s="2" t="str">
+      <c r="C153" s="17" t="str">
         <f>VLOOKUP(B153,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E153">
@@ -13202,11 +13460,11 @@
       <c r="B154" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C154" s="2" t="str">
+      <c r="C154" s="17" t="str">
         <f>VLOOKUP(B154,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E154">
@@ -13222,11 +13480,11 @@
       <c r="B155" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C155" s="2" t="str">
+      <c r="C155" s="17" t="str">
         <f>VLOOKUP(B155,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E155">
@@ -13242,11 +13500,11 @@
       <c r="B156" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C156" s="2" t="str">
+      <c r="C156" s="17" t="str">
         <f>VLOOKUP(B156,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E156">
@@ -13262,11 +13520,11 @@
       <c r="B157" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C157" s="2" t="str">
+      <c r="C157" s="17" t="str">
         <f>VLOOKUP(B157,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E157">
@@ -13282,11 +13540,11 @@
       <c r="B158" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C158" s="2" t="str">
+      <c r="C158" s="17" t="str">
         <f>VLOOKUP(B158,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E158">
@@ -13302,11 +13560,11 @@
       <c r="B159" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C159" s="2" t="str">
+      <c r="C159" s="17" t="str">
         <f>VLOOKUP(B159,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E159">
@@ -13322,11 +13580,11 @@
       <c r="B160" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C160" s="2" t="str">
+      <c r="C160" s="17" t="str">
         <f>VLOOKUP(B160,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E160">
@@ -13342,11 +13600,11 @@
       <c r="B161" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C161" s="2" t="str">
+      <c r="C161" s="17" t="str">
         <f>VLOOKUP(B161,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E161">
@@ -13362,11 +13620,11 @@
       <c r="B162" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C162" s="2" t="str">
+      <c r="C162" s="17" t="str">
         <f>VLOOKUP(B162,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E162">
@@ -13382,11 +13640,11 @@
       <c r="B163" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C163" s="2" t="str">
+      <c r="C163" s="17" t="str">
         <f>VLOOKUP(B163,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E163">
@@ -13402,11 +13660,11 @@
       <c r="B164" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C164" s="2" t="str">
+      <c r="C164" s="17" t="str">
         <f>VLOOKUP(B164,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E164">
@@ -13422,11 +13680,11 @@
       <c r="B165" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C165" s="2" t="str">
+      <c r="C165" s="17" t="str">
         <f>VLOOKUP(B165,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E165">
@@ -13442,11 +13700,11 @@
       <c r="B166" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C166" s="2" t="str">
+      <c r="C166" s="17" t="str">
         <f>VLOOKUP(B166,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E166">
@@ -13462,11 +13720,11 @@
       <c r="B167" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C167" s="2" t="str">
+      <c r="C167" s="17" t="str">
         <f>VLOOKUP(B167,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E167">
@@ -13482,11 +13740,11 @@
       <c r="B168" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C168" s="2" t="str">
+      <c r="C168" s="17" t="str">
         <f>VLOOKUP(B168,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E168">
@@ -13502,11 +13760,11 @@
       <c r="B169" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C169" s="2" t="str">
+      <c r="C169" s="17" t="str">
         <f>VLOOKUP(B169,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E169">
@@ -13522,11 +13780,11 @@
       <c r="B170" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C170" s="2" t="str">
+      <c r="C170" s="17" t="str">
         <f>VLOOKUP(B170,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E170">
@@ -13542,11 +13800,11 @@
       <c r="B171" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C171" s="2" t="str">
+      <c r="C171" s="17" t="str">
         <f>VLOOKUP(B171,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E171">
@@ -13562,11 +13820,11 @@
       <c r="B172" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C172" s="2" t="str">
+      <c r="C172" s="17" t="str">
         <f>VLOOKUP(B172,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E172">
@@ -13582,11 +13840,11 @@
       <c r="B173" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C173" s="2" t="str">
+      <c r="C173" s="17" t="str">
         <f>VLOOKUP(B173,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E173">
@@ -13602,11 +13860,11 @@
       <c r="B174" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C174" s="2" t="str">
+      <c r="C174" s="17" t="str">
         <f>VLOOKUP(B174,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E174">
@@ -13622,11 +13880,11 @@
       <c r="B175" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C175" s="2" t="str">
+      <c r="C175" s="17" t="str">
         <f>VLOOKUP(B175,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E175">
@@ -13642,11 +13900,11 @@
       <c r="B176" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C176" s="2" t="str">
+      <c r="C176" s="17" t="str">
         <f>VLOOKUP(B176,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E176">
@@ -13662,11 +13920,11 @@
       <c r="B177" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C177" s="2" t="str">
+      <c r="C177" s="17" t="str">
         <f>VLOOKUP(B177,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E177">
@@ -13682,11 +13940,11 @@
       <c r="B178" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C178" s="2" t="str">
+      <c r="C178" s="17" t="str">
         <f>VLOOKUP(B178,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E178">
@@ -13702,11 +13960,11 @@
       <c r="B179" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C179" s="2" t="str">
+      <c r="C179" s="17" t="str">
         <f>VLOOKUP(B179,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E179">
@@ -13722,11 +13980,11 @@
       <c r="B180" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C180" s="2" t="str">
+      <c r="C180" s="17" t="str">
         <f>VLOOKUP(B180,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E180">
@@ -13742,11 +14000,11 @@
       <c r="B181" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C181" s="2" t="str">
+      <c r="C181" s="17" t="str">
         <f>VLOOKUP(B181,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E181">
@@ -13762,11 +14020,11 @@
       <c r="B182" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C182" s="2" t="str">
+      <c r="C182" s="17" t="str">
         <f>VLOOKUP(B182,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E182">
@@ -13782,11 +14040,11 @@
       <c r="B183" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C183" s="2" t="str">
+      <c r="C183" s="17" t="str">
         <f>VLOOKUP(B183,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E183">
@@ -13802,11 +14060,11 @@
       <c r="B184" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C184" s="2" t="str">
+      <c r="C184" s="17" t="str">
         <f>VLOOKUP(B184,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E184">
@@ -13822,11 +14080,11 @@
       <c r="B185" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="2" t="str">
+      <c r="C185" s="17" t="str">
         <f>VLOOKUP(B185,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E185">
@@ -13842,11 +14100,11 @@
       <c r="B186" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C186" s="2" t="str">
+      <c r="C186" s="17" t="str">
         <f>VLOOKUP(B186,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E186">
@@ -13862,11 +14120,11 @@
       <c r="B187" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C187" s="2" t="str">
+      <c r="C187" s="17" t="str">
         <f>VLOOKUP(B187,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E187">
@@ -13882,11 +14140,11 @@
       <c r="B188" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C188" s="2" t="str">
+      <c r="C188" s="17" t="str">
         <f>VLOOKUP(B188,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E188">
@@ -13902,11 +14160,11 @@
       <c r="B189" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C189" s="2" t="str">
+      <c r="C189" s="17" t="str">
         <f>VLOOKUP(B189,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E189">
@@ -13922,11 +14180,11 @@
       <c r="B190" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C190" s="2" t="str">
+      <c r="C190" s="17" t="str">
         <f>VLOOKUP(B190,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E190">
@@ -13942,11 +14200,11 @@
       <c r="B191" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C191" s="2" t="str">
+      <c r="C191" s="17" t="str">
         <f>VLOOKUP(B191,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E191">
@@ -13962,11 +14220,11 @@
       <c r="B192" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C192" s="2" t="str">
+      <c r="C192" s="17" t="str">
         <f>VLOOKUP(B192,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E192">
@@ -13982,11 +14240,11 @@
       <c r="B193" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C193" s="2" t="str">
+      <c r="C193" s="17" t="str">
         <f>VLOOKUP(B193,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E193">
@@ -14002,11 +14260,11 @@
       <c r="B194" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C194" s="2" t="str">
+      <c r="C194" s="17" t="str">
         <f>VLOOKUP(B194,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E194">
@@ -14022,11 +14280,11 @@
       <c r="B195" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C195" s="2" t="str">
+      <c r="C195" s="17" t="str">
         <f>VLOOKUP(B195,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E195">
@@ -14042,11 +14300,11 @@
       <c r="B196" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C196" s="2" t="str">
+      <c r="C196" s="17" t="str">
         <f>VLOOKUP(B196,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E196">
@@ -14062,11 +14320,11 @@
       <c r="B197" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C197" s="2" t="str">
+      <c r="C197" s="17" t="str">
         <f>VLOOKUP(B197,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E197">
@@ -14082,11 +14340,11 @@
       <c r="B198" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C198" s="2" t="str">
+      <c r="C198" s="17" t="str">
         <f>VLOOKUP(B198,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E198">
@@ -14102,11 +14360,11 @@
       <c r="B199" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C199" s="2" t="str">
+      <c r="C199" s="17" t="str">
         <f>VLOOKUP(B199,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E199">
@@ -14122,11 +14380,11 @@
       <c r="B200" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C200" s="2" t="str">
+      <c r="C200" s="17" t="str">
         <f>VLOOKUP(B200,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E200">
@@ -14142,11 +14400,11 @@
       <c r="B201" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C201" s="2" t="str">
+      <c r="C201" s="17" t="str">
         <f>VLOOKUP(B201,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E201">
@@ -14162,11 +14420,11 @@
       <c r="B202" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C202" s="2" t="str">
+      <c r="C202" s="17" t="str">
         <f>VLOOKUP(B202,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E202">
@@ -14182,11 +14440,11 @@
       <c r="B203" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C203" s="2" t="str">
+      <c r="C203" s="17" t="str">
         <f>VLOOKUP(B203,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E203">
@@ -14202,11 +14460,11 @@
       <c r="B204" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C204" s="2" t="str">
+      <c r="C204" s="17" t="str">
         <f>VLOOKUP(B204,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E204">
@@ -14222,11 +14480,11 @@
       <c r="B205" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C205" s="2" t="str">
+      <c r="C205" s="17" t="str">
         <f>VLOOKUP(B205,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E205">
@@ -14242,11 +14500,11 @@
       <c r="B206" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C206" s="2" t="str">
+      <c r="C206" s="17" t="str">
         <f>VLOOKUP(B206,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E206">
@@ -14262,11 +14520,11 @@
       <c r="B207" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C207" s="2" t="str">
+      <c r="C207" s="17" t="str">
         <f>VLOOKUP(B207,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E207">
@@ -14282,11 +14540,11 @@
       <c r="B208" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C208" s="2" t="str">
+      <c r="C208" s="17" t="str">
         <f>VLOOKUP(B208,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E208">
@@ -14302,11 +14560,11 @@
       <c r="B209" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C209" s="2" t="str">
+      <c r="C209" s="17" t="str">
         <f>VLOOKUP(B209,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E209">
@@ -14322,11 +14580,11 @@
       <c r="B210" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C210" s="2" t="str">
+      <c r="C210" s="17" t="str">
         <f>VLOOKUP(B210,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E210">
@@ -14342,11 +14600,11 @@
       <c r="B211" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C211" s="2" t="str">
+      <c r="C211" s="17" t="str">
         <f>VLOOKUP(B211,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E211">
@@ -14362,11 +14620,11 @@
       <c r="B212" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C212" s="2" t="str">
+      <c r="C212" s="17" t="str">
         <f>VLOOKUP(B212,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E212">
@@ -14382,11 +14640,11 @@
       <c r="B213" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C213" s="2" t="str">
+      <c r="C213" s="17" t="str">
         <f>VLOOKUP(B213,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E213">
@@ -14402,11 +14660,11 @@
       <c r="B214" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C214" s="2" t="str">
+      <c r="C214" s="17" t="str">
         <f>VLOOKUP(B214,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E214">
@@ -14422,11 +14680,11 @@
       <c r="B215" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C215" s="2" t="str">
+      <c r="C215" s="17" t="str">
         <f>VLOOKUP(B215,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E215">
@@ -14442,11 +14700,11 @@
       <c r="B216" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C216" s="2" t="str">
+      <c r="C216" s="17" t="str">
         <f>VLOOKUP(B216,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E216">
@@ -14462,11 +14720,11 @@
       <c r="B217" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C217" s="2" t="str">
+      <c r="C217" s="17" t="str">
         <f>VLOOKUP(B217,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E217">
@@ -14482,11 +14740,11 @@
       <c r="B218" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C218" s="2" t="str">
+      <c r="C218" s="17" t="str">
         <f>VLOOKUP(B218,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E218">
@@ -14502,11 +14760,11 @@
       <c r="B219" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="2" t="str">
+      <c r="C219" s="17" t="str">
         <f>VLOOKUP(B219,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E219">
@@ -14522,11 +14780,11 @@
       <c r="B220" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C220" s="2" t="str">
+      <c r="C220" s="17" t="str">
         <f>VLOOKUP(B220,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E220">
@@ -14542,11 +14800,11 @@
       <c r="B221" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C221" s="2" t="str">
+      <c r="C221" s="17" t="str">
         <f>VLOOKUP(B221,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E221">
@@ -14562,11 +14820,11 @@
       <c r="B222" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C222" s="2" t="str">
+      <c r="C222" s="17" t="str">
         <f>VLOOKUP(B222,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E222">
@@ -14582,11 +14840,11 @@
       <c r="B223" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C223" s="2" t="str">
+      <c r="C223" s="17" t="str">
         <f>VLOOKUP(B223,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E223">
@@ -14602,11 +14860,11 @@
       <c r="B224" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C224" s="2" t="str">
+      <c r="C224" s="17" t="str">
         <f>VLOOKUP(B224,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E224">
@@ -14622,11 +14880,11 @@
       <c r="B225" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C225" s="2" t="str">
+      <c r="C225" s="17" t="str">
         <f>VLOOKUP(B225,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E225">
@@ -14642,11 +14900,11 @@
       <c r="B226" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C226" s="2" t="str">
+      <c r="C226" s="17" t="str">
         <f>VLOOKUP(B226,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E226">
@@ -14662,11 +14920,11 @@
       <c r="B227" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C227" s="2" t="str">
+      <c r="C227" s="17" t="str">
         <f>VLOOKUP(B227,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E227">
@@ -14682,11 +14940,11 @@
       <c r="B228" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C228" s="2" t="str">
+      <c r="C228" s="17" t="str">
         <f>VLOOKUP(B228,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E228">
@@ -14702,11 +14960,11 @@
       <c r="B229" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C229" s="2" t="str">
+      <c r="C229" s="17" t="str">
         <f>VLOOKUP(B229,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E229">
@@ -14722,11 +14980,11 @@
       <c r="B230" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C230" s="2" t="str">
+      <c r="C230" s="17" t="str">
         <f>VLOOKUP(B230,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E230">
@@ -14742,11 +15000,11 @@
       <c r="B231" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C231" s="2" t="str">
+      <c r="C231" s="17" t="str">
         <f>VLOOKUP(B231,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E231">
@@ -14762,11 +15020,11 @@
       <c r="B232" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="2" t="str">
+      <c r="C232" s="17" t="str">
         <f>VLOOKUP(B232,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E232">
@@ -14782,11 +15040,11 @@
       <c r="B233" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C233" s="2" t="str">
+      <c r="C233" s="17" t="str">
         <f>VLOOKUP(B233,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E233">
@@ -14802,11 +15060,11 @@
       <c r="B234" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C234" s="2" t="str">
+      <c r="C234" s="17" t="str">
         <f>VLOOKUP(B234,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E234">
@@ -14822,11 +15080,11 @@
       <c r="B235" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C235" s="2" t="str">
+      <c r="C235" s="17" t="str">
         <f>VLOOKUP(B235,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E235">
@@ -14842,11 +15100,11 @@
       <c r="B236" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C236" s="2" t="str">
+      <c r="C236" s="17" t="str">
         <f>VLOOKUP(B236,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E236">
@@ -14862,11 +15120,11 @@
       <c r="B237" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C237" s="2" t="str">
+      <c r="C237" s="17" t="str">
         <f>VLOOKUP(B237,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E237">
@@ -14882,11 +15140,11 @@
       <c r="B238" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C238" s="2" t="str">
+      <c r="C238" s="17" t="str">
         <f>VLOOKUP(B238,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E238">
@@ -14902,11 +15160,11 @@
       <c r="B239" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C239" s="2" t="str">
+      <c r="C239" s="17" t="str">
         <f>VLOOKUP(B239,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E239">
@@ -14922,11 +15180,11 @@
       <c r="B240" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C240" s="2" t="str">
+      <c r="C240" s="17" t="str">
         <f>VLOOKUP(B240,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E240">
@@ -14942,11 +15200,11 @@
       <c r="B241" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C241" s="2" t="str">
+      <c r="C241" s="17" t="str">
         <f>VLOOKUP(B241,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E241">
@@ -14962,11 +15220,11 @@
       <c r="B242" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C242" s="2" t="str">
+      <c r="C242" s="17" t="str">
         <f>VLOOKUP(B242,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E242">
@@ -14982,11 +15240,11 @@
       <c r="B243" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C243" s="2" t="str">
+      <c r="C243" s="17" t="str">
         <f>VLOOKUP(B243,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E243">
@@ -15002,11 +15260,11 @@
       <c r="B244" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C244" s="2" t="str">
+      <c r="C244" s="17" t="str">
         <f>VLOOKUP(B244,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E244">
@@ -15022,11 +15280,11 @@
       <c r="B245" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C245" s="2" t="str">
+      <c r="C245" s="17" t="str">
         <f>VLOOKUP(B245,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E245">
@@ -15042,11 +15300,11 @@
       <c r="B246" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C246" s="2" t="str">
+      <c r="C246" s="17" t="str">
         <f>VLOOKUP(B246,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E246">
@@ -15062,11 +15320,11 @@
       <c r="B247" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C247" s="2" t="str">
+      <c r="C247" s="17" t="str">
         <f>VLOOKUP(B247,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E247">
@@ -15082,11 +15340,11 @@
       <c r="B248" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C248" s="2" t="str">
+      <c r="C248" s="17" t="str">
         <f>VLOOKUP(B248,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E248">
@@ -15102,11 +15360,11 @@
       <c r="B249" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C249" s="2" t="str">
+      <c r="C249" s="17" t="str">
         <f>VLOOKUP(B249,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E249">
@@ -15122,11 +15380,11 @@
       <c r="B250" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C250" s="2" t="str">
+      <c r="C250" s="17" t="str">
         <f>VLOOKUP(B250,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E250">
@@ -15142,11 +15400,11 @@
       <c r="B251" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C251" s="2" t="str">
+      <c r="C251" s="17" t="str">
         <f>VLOOKUP(B251,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E251">
@@ -15162,11 +15420,11 @@
       <c r="B252" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C252" s="2" t="str">
+      <c r="C252" s="17" t="str">
         <f>VLOOKUP(B252,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E252">
@@ -15182,11 +15440,11 @@
       <c r="B253" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C253" s="2" t="str">
+      <c r="C253" s="17" t="str">
         <f>VLOOKUP(B253,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E253">
@@ -15202,11 +15460,11 @@
       <c r="B254" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C254" s="2" t="str">
+      <c r="C254" s="17" t="str">
         <f>VLOOKUP(B254,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E254">
@@ -15222,11 +15480,11 @@
       <c r="B255" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C255" s="2" t="str">
+      <c r="C255" s="17" t="str">
         <f>VLOOKUP(B255,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E255">
@@ -15242,11 +15500,11 @@
       <c r="B256" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C256" s="2" t="str">
+      <c r="C256" s="17" t="str">
         <f>VLOOKUP(B256,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E256">
@@ -15262,11 +15520,11 @@
       <c r="B257" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C257" s="2" t="str">
+      <c r="C257" s="17" t="str">
         <f>VLOOKUP(B257,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E257">
@@ -15282,11 +15540,11 @@
       <c r="B258" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C258" s="2" t="str">
+      <c r="C258" s="17" t="str">
         <f>VLOOKUP(B258,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E258">
@@ -15302,11 +15560,11 @@
       <c r="B259" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C259" s="2" t="str">
+      <c r="C259" s="17" t="str">
         <f>VLOOKUP(B259,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E259">
@@ -15322,11 +15580,11 @@
       <c r="B260" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C260" s="2" t="str">
+      <c r="C260" s="17" t="str">
         <f>VLOOKUP(B260,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E260">
@@ -15342,11 +15600,11 @@
       <c r="B261" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C261" s="2" t="str">
+      <c r="C261" s="17" t="str">
         <f>VLOOKUP(B261,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E261">
@@ -15362,11 +15620,11 @@
       <c r="B262" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C262" s="2" t="str">
+      <c r="C262" s="17" t="str">
         <f>VLOOKUP(B262,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E262">
@@ -15382,11 +15640,11 @@
       <c r="B263" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C263" s="2" t="str">
+      <c r="C263" s="17" t="str">
         <f>VLOOKUP(B263,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E263">
@@ -15402,11 +15660,11 @@
       <c r="B264" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C264" s="2" t="str">
+      <c r="C264" s="17" t="str">
         <f>VLOOKUP(B264,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E264">
@@ -15422,11 +15680,11 @@
       <c r="B265" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C265" s="2" t="str">
+      <c r="C265" s="17" t="str">
         <f>VLOOKUP(B265,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E265">
@@ -15442,11 +15700,11 @@
       <c r="B266" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C266" s="2" t="str">
+      <c r="C266" s="17" t="str">
         <f>VLOOKUP(B266,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E266">
@@ -15462,11 +15720,11 @@
       <c r="B267" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C267" s="2" t="str">
+      <c r="C267" s="17" t="str">
         <f>VLOOKUP(B267,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E267">
@@ -15482,11 +15740,11 @@
       <c r="B268" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C268" s="2" t="str">
+      <c r="C268" s="17" t="str">
         <f>VLOOKUP(B268,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E268">
@@ -15502,11 +15760,11 @@
       <c r="B269" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C269" s="2" t="str">
+      <c r="C269" s="17" t="str">
         <f>VLOOKUP(B269,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E269">
@@ -15522,11 +15780,11 @@
       <c r="B270" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C270" s="2" t="str">
+      <c r="C270" s="17" t="str">
         <f>VLOOKUP(B270,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E270">
@@ -15542,11 +15800,11 @@
       <c r="B271" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C271" s="2" t="str">
+      <c r="C271" s="17" t="str">
         <f>VLOOKUP(B271,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E271">
@@ -15562,11 +15820,11 @@
       <c r="B272" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C272" s="2" t="str">
+      <c r="C272" s="17" t="str">
         <f>VLOOKUP(B272,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E272">
@@ -15582,11 +15840,11 @@
       <c r="B273" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C273" s="2" t="str">
+      <c r="C273" s="17" t="str">
         <f>VLOOKUP(B273,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E273">
@@ -15602,11 +15860,11 @@
       <c r="B274" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C274" s="2" t="str">
+      <c r="C274" s="17" t="str">
         <f>VLOOKUP(B274,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E274">
@@ -15622,11 +15880,11 @@
       <c r="B275" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C275" s="2" t="str">
+      <c r="C275" s="17" t="str">
         <f>VLOOKUP(B275,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E275">
@@ -15642,11 +15900,11 @@
       <c r="B276" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C276" s="2" t="str">
+      <c r="C276" s="17" t="str">
         <f>VLOOKUP(B276,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E276">
@@ -15662,11 +15920,11 @@
       <c r="B277" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C277" s="2" t="str">
+      <c r="C277" s="17" t="str">
         <f>VLOOKUP(B277,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E277">
@@ -15682,11 +15940,11 @@
       <c r="B278" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C278" s="2" t="str">
+      <c r="C278" s="17" t="str">
         <f>VLOOKUP(B278,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E278">
@@ -15702,11 +15960,11 @@
       <c r="B279" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C279" s="2" t="str">
+      <c r="C279" s="17" t="str">
         <f>VLOOKUP(B279,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E279">
@@ -15722,11 +15980,11 @@
       <c r="B280" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C280" s="2" t="str">
+      <c r="C280" s="17" t="str">
         <f>VLOOKUP(B280,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E280">
@@ -15742,11 +16000,11 @@
       <c r="B281" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C281" s="2" t="str">
+      <c r="C281" s="17" t="str">
         <f>VLOOKUP(B281,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E281">
@@ -15762,11 +16020,11 @@
       <c r="B282" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C282" s="2" t="str">
+      <c r="C282" s="17" t="str">
         <f>VLOOKUP(B282,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E282">
@@ -15782,11 +16040,11 @@
       <c r="B283" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C283" s="2" t="str">
+      <c r="C283" s="17" t="str">
         <f>VLOOKUP(B283,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E283">
@@ -15802,11 +16060,11 @@
       <c r="B284" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C284" s="2" t="str">
+      <c r="C284" s="17" t="str">
         <f>VLOOKUP(B284,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E284">
@@ -15822,11 +16080,11 @@
       <c r="B285" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C285" s="2" t="str">
+      <c r="C285" s="17" t="str">
         <f>VLOOKUP(B285,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E285">
@@ -15842,11 +16100,11 @@
       <c r="B286" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C286" s="2" t="str">
+      <c r="C286" s="17" t="str">
         <f>VLOOKUP(B286,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E286">
@@ -15862,11 +16120,11 @@
       <c r="B287" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C287" s="2" t="str">
+      <c r="C287" s="17" t="str">
         <f>VLOOKUP(B287,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E287">
@@ -15882,11 +16140,11 @@
       <c r="B288" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C288" s="2" t="str">
+      <c r="C288" s="17" t="str">
         <f>VLOOKUP(B288,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E288">
@@ -15902,11 +16160,11 @@
       <c r="B289" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C289" s="2" t="str">
+      <c r="C289" s="17" t="str">
         <f>VLOOKUP(B289,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E289">
@@ -15922,11 +16180,11 @@
       <c r="B290" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C290" s="2" t="str">
+      <c r="C290" s="17" t="str">
         <f>VLOOKUP(B290,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E290">
@@ -15942,11 +16200,11 @@
       <c r="B291" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C291" s="2" t="str">
+      <c r="C291" s="17" t="str">
         <f>VLOOKUP(B291,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E291">
@@ -15962,11 +16220,11 @@
       <c r="B292" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C292" s="2" t="str">
+      <c r="C292" s="17" t="str">
         <f>VLOOKUP(B292,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E292">
@@ -15982,11 +16240,11 @@
       <c r="B293" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C293" s="2" t="str">
+      <c r="C293" s="17" t="str">
         <f>VLOOKUP(B293,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E293">
@@ -16002,11 +16260,11 @@
       <c r="B294" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C294" s="2" t="str">
+      <c r="C294" s="17" t="str">
         <f>VLOOKUP(B294,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E294">
@@ -16022,11 +16280,11 @@
       <c r="B295" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C295" s="2" t="str">
+      <c r="C295" s="17" t="str">
         <f>VLOOKUP(B295,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E295">
@@ -16042,11 +16300,11 @@
       <c r="B296" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C296" s="2" t="str">
+      <c r="C296" s="17" t="str">
         <f>VLOOKUP(B296,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E296">
@@ -16062,11 +16320,11 @@
       <c r="B297" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C297" s="2" t="str">
+      <c r="C297" s="17" t="str">
         <f>VLOOKUP(B297,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E297">
@@ -16082,11 +16340,11 @@
       <c r="B298" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C298" s="2" t="str">
+      <c r="C298" s="17" t="str">
         <f>VLOOKUP(B298,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E298">
@@ -16102,11 +16360,11 @@
       <c r="B299" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C299" s="2" t="str">
+      <c r="C299" s="17" t="str">
         <f>VLOOKUP(B299,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E299">
@@ -21527,10 +21785,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="H7" sqref="H7"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection activeCell="AU9" sqref="AU9"/>
+      <selection pane="bottomLeft" activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21582,7 +21840,7 @@
         <v>51</v>
       </c>
       <c r="B2" t="str">
-        <f>IF(C2=$C$3,_xlfn.CONCAT(A2," - ",D2),A2)</f>
+        <f t="shared" ref="B2:B9" si="0">IF(C2=$C$3,_xlfn.CONCAT(A2," - ",D2),A2)</f>
         <v>Chicken Breast</v>
       </c>
       <c r="C2" t="s">
@@ -21602,11 +21860,15 @@
         <v>9</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H65" si="0">IF(G2="","",F2/G2)</f>
+        <f t="shared" ref="H2:H33" si="1">IF(G2="","",F2/G2)</f>
         <v>1.9305555555555556</v>
       </c>
       <c r="I2">
         <v>29</v>
+      </c>
+      <c r="J2" s="6">
+        <f>(I2/28.35)*100</f>
+        <v>102.29276895943562</v>
       </c>
       <c r="N2">
         <f>100/16</f>
@@ -21621,7 +21883,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="1">IF(C3=$C$3,_xlfn.CONCAT(A3," - ",D3),A3)</f>
+        <f t="shared" si="0"/>
         <v>Brussel Sprouts - Frozen</v>
       </c>
       <c r="C3" t="s">
@@ -21636,11 +21898,15 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I3">
         <v>12</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J66" si="2">(I3/28.35)*100</f>
+        <v>42.328042328042329</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>150</v>
@@ -21654,7 +21920,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Brussel Sprouts - Fresh</v>
       </c>
       <c r="C4" t="s">
@@ -21672,11 +21938,15 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I4">
         <v>12</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="2"/>
+        <v>42.328042328042329</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>47</v>
@@ -21690,7 +21960,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Sweet Peas - Frozen</v>
       </c>
       <c r="C5" t="s">
@@ -21705,11 +21975,15 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I5">
         <v>23</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="2"/>
+        <v>81.128747795414455</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>48</v>
@@ -21723,7 +21997,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Pepper and Onions - Frozen</v>
       </c>
       <c r="C6" t="s">
@@ -21738,11 +22012,15 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I6">
         <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="2"/>
+        <v>24.691358024691358</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>49</v>
@@ -21756,7 +22034,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Serrano Pepper - Fresh</v>
       </c>
       <c r="C7" t="s">
@@ -21774,11 +22052,15 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I7">
         <v>9</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="2"/>
+        <v>31.746031746031743</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -21787,7 +22069,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Broccoli Stir Fry - Frozen</v>
       </c>
       <c r="C8" t="s">
@@ -21802,11 +22084,15 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I8">
         <v>12.3</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="2"/>
+        <v>43.386243386243386</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -21814,7 +22100,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Crinkle Carrots - Frozen</v>
       </c>
       <c r="C9" t="s">
@@ -21829,11 +22115,15 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I9">
         <v>12</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="2"/>
+        <v>42.328042328042329</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -21858,11 +22148,15 @@
         <v>0.9</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.444444444444446</v>
       </c>
       <c r="I10">
         <v>24</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="2"/>
+        <v>84.656084656084658</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -21870,7 +22164,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C11=$C$3,_xlfn.CONCAT(A11," - ",D11),A11)</f>
         <v>Sugar Snap Stir Fry - Frozen</v>
       </c>
       <c r="C11" t="s">
@@ -21885,11 +22179,15 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I11">
         <v>10.5</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="2"/>
+        <v>37.037037037037038</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -21914,18 +22212,22 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="I12">
         <v>39</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="2"/>
+        <v>137.56613756613757</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12" t="str">
+      <c r="B13" t="str">
         <f>IF(C13=$C$3,_xlfn.CONCAT(A13," - ",D13),A13)</f>
         <v>Onion - Frozen</v>
       </c>
@@ -21941,11 +22243,15 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I13">
         <v>12</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="2"/>
+        <v>42.328042328042329</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -21953,7 +22259,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C14=$C$3,_xlfn.CONCAT(A14," - ",D14),A14)</f>
         <v>Seasoning Blend - Frozen</v>
       </c>
       <c r="C14" t="s">
@@ -21968,11 +22274,15 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I14">
         <v>8.8000000000000007</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="2"/>
+        <v>31.040564373897706</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -21980,7 +22290,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C15=$C$3,_xlfn.CONCAT(A15," - ",D15),A15)</f>
         <v>Mixed Veggies - Frozen</v>
       </c>
       <c r="C15" t="s">
@@ -21995,11 +22305,15 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I15">
         <v>16.7</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="2"/>
+        <v>58.906525573192233</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -22024,19 +22338,23 @@
         <v>0.67</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8208955223880592</v>
       </c>
       <c r="I16">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="6">
+        <f t="shared" si="2"/>
+        <v>88.183421516754848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B17:B24" si="3">IF(C17=$C$3,_xlfn.CONCAT(A17," - ",D17),A17)</f>
         <v>Okro - Frozen</v>
       </c>
       <c r="C17" t="s">
@@ -22051,19 +22369,23 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I17">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="6">
+        <f t="shared" si="2"/>
+        <v>29.982363315696649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Mixed Fruits</v>
       </c>
       <c r="C18" t="s">
@@ -22078,19 +22400,23 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I18">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="6">
+        <f t="shared" si="2"/>
+        <v>66.313932980599645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Broccoli Cuts - Frozen</v>
       </c>
       <c r="C19" t="s">
@@ -22105,19 +22431,23 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="6">
+        <f t="shared" si="2"/>
+        <v>28.21869488536155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Broccoli Florrets - Frozen</v>
       </c>
       <c r="C20" t="s">
@@ -22132,19 +22462,23 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="6">
+        <f t="shared" si="2"/>
+        <v>28.21869488536155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cauliflower - Frozen</v>
       </c>
       <c r="C21" t="s">
@@ -22159,19 +22493,23 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="6">
+        <f t="shared" si="2"/>
+        <v>24.691358024691358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Broccoli and Cauliflower - Frozen</v>
       </c>
       <c r="C22" t="s">
@@ -22186,19 +22524,23 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I22">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="6">
+        <f t="shared" si="2"/>
+        <v>26.455026455026452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cabbage - Fresh</v>
       </c>
       <c r="C23" t="s">
@@ -22216,19 +22558,23 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="6">
+        <f t="shared" si="2"/>
+        <v>24.691358024691358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Salmon</v>
       </c>
       <c r="C24" t="s">
@@ -22248,14 +22594,18 @@
         <v>6</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.239583333333334</v>
       </c>
       <c r="I24">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="6">
+        <f t="shared" si="2"/>
+        <v>144.62081128747795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -22277,19 +22627,23 @@
         <v>1.67</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9940119760479043</v>
       </c>
       <c r="I25">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="6">
+        <f t="shared" si="2"/>
+        <v>119.92945326278659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B26:B73" si="4">IF(C26=$C$3,_xlfn.CONCAT(A26," - ",D26),A26)</f>
         <v>Spinach - Fresh</v>
       </c>
       <c r="C26" t="s">
@@ -22304,19 +22658,23 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="6">
+        <f t="shared" si="2"/>
+        <v>24.691358024691358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Sweet Potatoes</v>
       </c>
       <c r="C27" t="s">
@@ -22336,19 +22694,23 @@
         <v>0.9</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9166666666666652</v>
       </c>
       <c r="I27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="6">
+        <f t="shared" si="2"/>
+        <v>84.656084656084658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Protein Oats</v>
       </c>
       <c r="C28" t="s">
@@ -22365,19 +22727,23 @@
         <v>5.63</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8614564831261102</v>
       </c>
       <c r="I28">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="6">
+        <f t="shared" si="2"/>
+        <v>377.07231040564375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Zuchinni - Fresh</v>
       </c>
       <c r="C29" t="s">
@@ -22390,24 +22756,28 @@
         <v>1.18</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ref="F29:F34" si="2">E29*$N$2</f>
+        <f t="shared" ref="F29:F34" si="5">E29*$N$2</f>
         <v>7.375</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="6">
+        <f t="shared" si="2"/>
+        <v>17.636684303350968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Yellow Squash - Fresh</v>
       </c>
       <c r="C30" t="s">
@@ -22420,24 +22790,28 @@
         <v>1.18</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.375</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="6">
+        <f t="shared" si="2"/>
+        <v>17.636684303350968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Eggplant - Fresh</v>
       </c>
       <c r="C31" t="s">
@@ -22451,24 +22825,28 @@
         <v>0.98</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.125</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="6">
+        <f t="shared" si="2"/>
+        <v>24.691358024691358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Tomatoes - Fresh</v>
       </c>
       <c r="C32" t="s">
@@ -22481,24 +22859,28 @@
         <v>0.98</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.125</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="6">
+        <f t="shared" si="2"/>
+        <v>17.636684303350968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>63</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Irish Potatoes</v>
       </c>
       <c r="C33" t="s">
@@ -22511,26 +22893,30 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="G33" s="1">
         <v>0.6</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
       <c r="I33">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="6">
+        <f t="shared" si="2"/>
+        <v>88.183421516754848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Onion - Fresh</v>
       </c>
       <c r="C34" t="s">
@@ -22543,24 +22929,28 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.2062499999999998</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H34:H65" si="6">IF(G34="","",F34/G34)</f>
         <v/>
       </c>
       <c r="I34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="6">
+        <f t="shared" si="2"/>
+        <v>42.328042328042329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Mushroom - Fresh</v>
       </c>
       <c r="C35" t="s">
@@ -22577,19 +22967,23 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="6">
+        <f t="shared" si="2"/>
+        <v>21.164021164021165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>65</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Tangerine</v>
       </c>
       <c r="C36" t="s">
@@ -22602,24 +22996,28 @@
         <v>1.54</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ref="F36:F41" si="3">E36*$N$2</f>
+        <f t="shared" ref="F36:F41" si="7">E36*$N$2</f>
         <v>9.625</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36" s="6">
+        <f t="shared" si="2"/>
+        <v>52.910052910052904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>67</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Red Grapes</v>
       </c>
       <c r="C37" t="s">
@@ -22632,24 +23030,28 @@
         <v>1.28</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="6">
+        <f t="shared" si="2"/>
+        <v>70.546737213403873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>68</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Banana</v>
       </c>
       <c r="C38" t="s">
@@ -22662,24 +23064,28 @@
         <v>0.5</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.125</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I38">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38" s="6">
+        <f t="shared" si="2"/>
+        <v>88.183421516754848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>69</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Tofu</v>
       </c>
       <c r="C39" t="s">
@@ -22692,26 +23098,30 @@
         <v>1.67</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.4375</v>
       </c>
       <c r="G39" s="1">
         <v>2.33</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4796137339055795</v>
       </c>
       <c r="I39">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39" s="6">
+        <f t="shared" si="2"/>
+        <v>74.074074074074076</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Broccoli - Fresh</v>
       </c>
       <c r="C40" t="s">
@@ -22724,24 +23134,28 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14.499999999999998</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40" s="6">
+        <f t="shared" si="2"/>
+        <v>28.21869488536155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Red Onions - Fresh</v>
       </c>
       <c r="C41" t="s">
@@ -22754,24 +23168,28 @@
         <v>1.28</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" s="6">
+        <f t="shared" si="2"/>
+        <v>42.328042328042329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Mini Sweet Peppers - Fresh</v>
       </c>
       <c r="C42" t="s">
@@ -22787,19 +23205,23 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42" s="6">
+        <f t="shared" si="2"/>
+        <v>31.746031746031743</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Cauliflower - Fresh</v>
       </c>
       <c r="C43" t="s">
@@ -22817,19 +23239,23 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43" s="6">
+        <f t="shared" si="2"/>
+        <v>24.691358024691358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>25</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Grape Tomatoes - Fresh</v>
       </c>
       <c r="C44" t="s">
@@ -22844,19 +23270,23 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J44" s="6">
+        <f t="shared" si="2"/>
+        <v>17.636684303350968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Eggs</v>
       </c>
       <c r="C45" t="s">
@@ -22873,19 +23303,23 @@
         <v>2.67</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.5468164794007495</v>
       </c>
       <c r="I45">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45" s="6">
+        <f t="shared" si="2"/>
+        <v>109.34744268077601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Greek Yogurt</v>
       </c>
       <c r="C46" t="s">
@@ -22902,19 +23336,23 @@
         <v>2.66</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.1729323308270674</v>
       </c>
       <c r="I46">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46" s="6">
+        <f t="shared" si="2"/>
+        <v>59.964726631393297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Cottage cheese</v>
       </c>
       <c r="C47" t="s">
@@ -22934,19 +23372,23 @@
         <v>3</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.5833333333333335</v>
       </c>
       <c r="I47">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47" s="6">
+        <f t="shared" si="2"/>
+        <v>98.76543209876543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>73</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Chicken Thighs</v>
       </c>
       <c r="C48" t="s">
@@ -22966,19 +23408,23 @@
         <v>7</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.2678571428571428</v>
       </c>
       <c r="I48">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48" s="6">
+        <f t="shared" si="2"/>
+        <v>137.56613756613757</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>74</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Chicken Drums</v>
       </c>
       <c r="C49" t="s">
@@ -22998,19 +23444,23 @@
         <v>5</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.4875</v>
       </c>
       <c r="I49">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" s="6">
+        <f t="shared" si="2"/>
+        <v>74.074074074074076</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>75</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Shrimp</v>
       </c>
       <c r="C50" t="s">
@@ -23030,19 +23480,23 @@
         <v>3.75</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14.05</v>
       </c>
       <c r="I50">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50" s="6">
+        <f t="shared" si="2"/>
+        <v>70.546737213403873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>76</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Peaches</v>
       </c>
       <c r="C51" t="s">
@@ -23057,19 +23511,23 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I51">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51" s="6">
+        <f t="shared" si="2"/>
+        <v>38.800705467372133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Peas and Carrot - Frozen</v>
       </c>
       <c r="C52" t="s">
@@ -23085,19 +23543,23 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I52">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J52" s="6">
+        <f t="shared" si="2"/>
+        <v>58.906525573192233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>77</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Pineapple</v>
       </c>
       <c r="C53" t="s">
@@ -23112,19 +23574,23 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I53">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53" s="6">
+        <f t="shared" si="2"/>
+        <v>49.382716049382715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>68</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Banana</v>
       </c>
       <c r="C54" t="s">
@@ -23139,19 +23605,23 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I54">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54" s="6">
+        <f t="shared" si="2"/>
+        <v>88.183421516754848</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>78</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Strawberry</v>
       </c>
       <c r="C55" t="s">
@@ -23166,19 +23636,23 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55" s="6">
+        <f t="shared" si="2"/>
+        <v>31.746031746031743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>14</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Spinach - Frozen</v>
       </c>
       <c r="C56" t="s">
@@ -23194,19 +23668,23 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56" s="6">
+        <f t="shared" si="2"/>
+        <v>24.691358024691358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>21</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Deluxe Stir Fry - Frozen</v>
       </c>
       <c r="C57" t="s">
@@ -23221,19 +23699,23 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I57">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57" s="6">
+        <f t="shared" si="2"/>
+        <v>37.037037037037038</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Kale - Frozen</v>
       </c>
       <c r="C58" t="s">
@@ -23248,19 +23730,23 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I58">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58" s="6">
+        <f t="shared" si="2"/>
+        <v>49.382716049382715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>79</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Mango</v>
       </c>
       <c r="C59" t="s">
@@ -23275,19 +23761,23 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I59">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59" s="6">
+        <f t="shared" si="2"/>
+        <v>59.964726631393297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>80</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Mix Berries</v>
       </c>
       <c r="C60" t="s">
@@ -23302,19 +23792,23 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I60">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60" s="6">
+        <f t="shared" si="2"/>
+        <v>46.208112874779538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>81</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Oat</v>
       </c>
       <c r="C61" t="s">
@@ -23331,19 +23825,23 @@
         <v>2.6</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.6538461538461537</v>
       </c>
       <c r="I61">
         <v>110</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61" s="6">
+        <f t="shared" si="2"/>
+        <v>388.00705467372131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>82</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Bread</v>
       </c>
       <c r="C62" t="s">
@@ -23360,19 +23858,23 @@
         <v>1.5</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>8.2666666666666675</v>
       </c>
       <c r="I62">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" s="6">
+        <f t="shared" si="2"/>
+        <v>229.27689594356261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>83</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Red Lentils</v>
       </c>
       <c r="C63" t="s">
@@ -23389,19 +23891,23 @@
         <v>6.5</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.0923076923076924</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" s="6">
+        <f t="shared" si="2"/>
+        <v>352.73368606701939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>157</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Wheat Spag</v>
       </c>
       <c r="C64" t="s">
@@ -23418,19 +23924,23 @@
         <v>3.5</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.8285714285714287</v>
       </c>
       <c r="I64">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J64" s="6">
+        <f t="shared" si="2"/>
+        <v>317.46031746031747</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>84</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Wheat flour</v>
       </c>
       <c r="C65" t="s">
@@ -23447,19 +23957,23 @@
         <v>2.81</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>38.434163701067618</v>
       </c>
       <c r="I65">
         <v>103</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65" s="6">
+        <f t="shared" si="2"/>
+        <v>363.31569664902997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>85</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Peanuts</v>
       </c>
       <c r="C66" t="s">
@@ -23476,19 +23990,23 @@
         <v>7</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66:H78" si="4">IF(G66="","",F66/G66)</f>
+        <f t="shared" ref="H66:H97" si="8">IF(G66="","",F66/G66)</f>
         <v>1.7285714285714284</v>
       </c>
       <c r="I66">
         <v>166</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J66" s="6">
+        <f t="shared" si="2"/>
+        <v>585.53791887125226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>86</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B78" si="5">IF(C67=$C$3,_xlfn.CONCAT(A67," - ",D67),A67)</f>
+        <f t="shared" si="4"/>
         <v>Cashew</v>
       </c>
       <c r="C67" t="s">
@@ -23505,19 +24023,23 @@
         <v>5</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.4</v>
       </c>
       <c r="I67">
         <v>157</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67" s="6">
+        <f t="shared" ref="J67:J78" si="9">(I67/28.35)*100</f>
+        <v>553.79188712522046</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Walnuts</v>
       </c>
       <c r="C68" t="s">
@@ -23534,19 +24056,23 @@
         <v>4.3</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.0232558139534884</v>
       </c>
       <c r="I68">
         <v>185</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68" s="6">
+        <f t="shared" si="9"/>
+        <v>652.55731922398581</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Butternut Squash - Frozen</v>
       </c>
       <c r="C69" t="s">
@@ -23561,19 +24087,23 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I69">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69" s="6">
+        <f t="shared" si="9"/>
+        <v>45.855379188712519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>88</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Almonds</v>
       </c>
       <c r="C70" t="s">
@@ -23590,19 +24120,23 @@
         <v>6</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.2333333333333334</v>
       </c>
       <c r="I70">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J70" s="6">
+        <f t="shared" si="9"/>
+        <v>455.02645502645498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>89</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Basmati Rice</v>
       </c>
       <c r="C71" t="s">
@@ -23622,19 +24156,23 @@
         <v>0.8</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.734375</v>
       </c>
       <c r="I71">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71" s="6">
+        <f t="shared" si="9"/>
+        <v>359.78835978835974</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>90</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Brown Rice</v>
       </c>
       <c r="C72" t="s">
@@ -23650,19 +24188,23 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7695473251028804</v>
       </c>
       <c r="I72">
         <v>105</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J72" s="6">
+        <f t="shared" si="9"/>
+        <v>370.37037037037038</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>91</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Long Grain Rice</v>
       </c>
       <c r="C73" t="s">
@@ -23678,14 +24220,18 @@
         <v>0.3</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.333333333333332</v>
       </c>
       <c r="I73">
         <v>112</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J73" s="6">
+        <f t="shared" si="9"/>
+        <v>395.06172839506172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -23706,14 +24252,18 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.778761061946903</v>
       </c>
       <c r="I74">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74" s="6">
+        <f t="shared" si="9"/>
+        <v>77.601410934744266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -23734,19 +24284,23 @@
         <v>1.61</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.1677018633540368</v>
       </c>
       <c r="I75">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75" s="6">
+        <f t="shared" si="9"/>
+        <v>91.710758377425037</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C76=$C$3,_xlfn.CONCAT(A76," - ",D76),A76)</f>
         <v>Baby Carrot - Fresh</v>
       </c>
       <c r="C76" t="s">
@@ -23760,19 +24314,23 @@
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I76">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76" s="6">
+        <f t="shared" si="9"/>
+        <v>42.328042328042329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>6</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C77=$C$3,_xlfn.CONCAT(A77," - ",D77),A77)</f>
         <v>Shreeded Lettuce - Fresh</v>
       </c>
       <c r="C77" t="s">
@@ -23786,19 +24344,23 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J77" s="6">
+        <f t="shared" si="9"/>
+        <v>14.109347442680775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>22</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C78=$C$3,_xlfn.CONCAT(A78," - ",D78),A78)</f>
         <v>Iceberg Salad - Fresh</v>
       </c>
       <c r="C78" t="s">
@@ -23812,11 +24374,15 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I78">
         <v>5</v>
+      </c>
+      <c r="J78" s="6">
+        <f t="shared" si="9"/>
+        <v>17.636684303350968</v>
       </c>
     </row>
   </sheetData>
@@ -24389,240 +24955,240 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="1">
         <v>3.125</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="1">
         <v>14</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="1">
         <v>15</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="1">
         <v>8</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="1">
         <v>14.6</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="1">
         <v>20</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="1">
         <v>9.625</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="1">
         <v>15.1</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="1">
         <v>25</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="1">
         <v>13.1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="1">
         <v>6.916666666666667</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="1">
         <v>15.6</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="1">
         <v>20</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="1">
         <v>16.8</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="1">
         <v>16.8</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="1">
         <v>18.8</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="1">
         <v>16.8</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="1">
         <v>15.671428571428573</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="1">
         <v>15.414285714285715</v>
       </c>
     </row>

--- a/Groceries Analysis.xlsx
+++ b/Groceries Analysis.xlsx
@@ -5,21 +5,21 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17098c5f813f529f/UNTHSC and Beyond/Work/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enefe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5087" documentId="8_{8FF44B6A-93BD-487A-9BED-D1442CBF9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5524BC7C-DAD7-409F-B548-61F7B876FF63}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F652115-F567-47B0-8977-17E815A15BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F0151F15-CD19-40C3-B933-81F1DA960A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="18" r:id="rId1"/>
-    <sheet name="Base" sheetId="16" r:id="rId2"/>
-    <sheet name="Pro" sheetId="4" r:id="rId3"/>
-    <sheet name="Carbs" sheetId="5" r:id="rId4"/>
-    <sheet name="Veg" sheetId="6" r:id="rId5"/>
-    <sheet name="Food items" sheetId="8" r:id="rId6"/>
-    <sheet name="Fruits" sheetId="7" r:id="rId7"/>
+    <sheet name="Base" sheetId="16" state="hidden" r:id="rId2"/>
+    <sheet name="Pro" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Carbs" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Veg" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Food items" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="Fruits" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Base!$B$1:$E$299</definedName>
@@ -32,7 +32,7 @@
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
     <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="27" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -721,26 +721,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <fill>
@@ -932,17 +925,24 @@
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <font>
+        <sz val="26"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="5" xr9:uid="{480E36EA-0770-45EF-807B-8AF65EA5E923}">
-      <tableStyleElement type="wholeTable" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="25">
+      <x14:dxfs count="4">
         <dxf>
           <font>
             <b/>
@@ -983,192 +983,6 @@
             <color theme="0"/>
           </font>
         </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b val="0"/>
-            <i val="0"/>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b val="0"/>
-            <i val="0"/>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="26"/>
-            <color theme="0"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="26"/>
-          </font>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <b/>
-            <i val="0"/>
-            <sz val="26"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="28"/>
-          </font>
-        </dxf>
       </x14:dxfs>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1204,7 +1018,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Groceries Analysis.xlsx]Base!PivotTable14</c:name>
+    <c:name>[Groceries Analysis (2).xlsx]Base!PivotTable14</c:name>
     <c:fmtId val="14"/>
   </c:pivotSource>
   <c:chart>
@@ -2605,14 +2419,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2730,8 +2544,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>79376</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Rank Category">
@@ -2754,7 +2568,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7811,7 +7625,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{679779B0-24FE-47BF-B9D9-A0FF4D9F6204}" name="PivotTable14" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{679779B0-24FE-47BF-B9D9-A0FF4D9F6204}" name="PivotTable14" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="H6:J18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField name="Rank" axis="axisRow" showAll="0" sortType="descending">
@@ -8237,7 +8051,7 @@
     <dataField name="Average Calories" fld="8" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="32">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8418,7 +8232,7 @@
     <dataField name="Average Calories" fld="8" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="31">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8671,7 +8485,7 @@
     <dataField name="Average Calories" fld="7" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="30">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8688,6 +8502,177 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98DFD826-F534-4166-BA7C-0BDA954B9F04}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="73">
+        <item x="62"/>
+        <item x="68"/>
+        <item x="33"/>
+        <item m="1" x="71"/>
+        <item x="63"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="54"/>
+        <item x="35"/>
+        <item x="19"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="64"/>
+        <item x="56"/>
+        <item x="1"/>
+        <item x="61"/>
+        <item x="20"/>
+        <item x="59"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="41"/>
+        <item x="6"/>
+        <item x="49"/>
+        <item x="27"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="70"/>
+        <item x="29"/>
+        <item x="50"/>
+        <item x="9"/>
+        <item x="65"/>
+        <item x="51"/>
+        <item x="37"/>
+        <item x="52"/>
+        <item x="15"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="53"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="45"/>
+        <item x="58"/>
+        <item x="46"/>
+        <item x="3"/>
+        <item x="47"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="55"/>
+        <item x="36"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="69"/>
+        <item x="44"/>
+        <item x="23"/>
+        <item x="48"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="31"/>
+        <item x="34"/>
+        <item x="28"/>
+        <item x="60"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Average of Weight Cost " fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Calories" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17FC32DB-2DE0-4950-8EF6-EBCC3B84DAC6}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="G19:H23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
@@ -8889,7 +8874,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40CEC9D1-C2AC-40A5-8623-29F1312D816C}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="J19:K27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
@@ -9104,7 +9089,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9708EEB-078B-445F-853B-1C4508741D51}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="D19:E27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
@@ -9319,7 +9304,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D39C93B2-F6CE-46E4-BBFC-9459F2F590AA}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A19:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
@@ -9507,177 +9492,6 @@
     </format>
     <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98DFD826-F534-4166-BA7C-0BDA954B9F04}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="73">
-        <item x="62"/>
-        <item x="68"/>
-        <item x="33"/>
-        <item m="1" x="71"/>
-        <item x="63"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="54"/>
-        <item x="35"/>
-        <item x="19"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="5"/>
-        <item x="64"/>
-        <item x="56"/>
-        <item x="1"/>
-        <item x="61"/>
-        <item x="20"/>
-        <item x="59"/>
-        <item x="18"/>
-        <item x="0"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="22"/>
-        <item x="13"/>
-        <item x="41"/>
-        <item x="6"/>
-        <item x="49"/>
-        <item x="27"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="70"/>
-        <item x="29"/>
-        <item x="50"/>
-        <item x="9"/>
-        <item x="65"/>
-        <item x="51"/>
-        <item x="37"/>
-        <item x="52"/>
-        <item x="15"/>
-        <item x="12"/>
-        <item x="30"/>
-        <item x="53"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="45"/>
-        <item x="58"/>
-        <item x="46"/>
-        <item x="3"/>
-        <item x="47"/>
-        <item x="24"/>
-        <item x="32"/>
-        <item x="55"/>
-        <item x="36"/>
-        <item x="21"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="69"/>
-        <item x="44"/>
-        <item x="23"/>
-        <item x="48"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="28"/>
-        <item x="60"/>
-        <item x="57"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Average of Weight Cost " fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Calories" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="29">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -10045,8 +9859,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="E4:AS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AV44" sqref="AV44"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AO27" sqref="AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10088,7 +9902,7 @@
       <c r="AS6" s="11"/>
     </row>
     <row r="7" spans="5:45" ht="31" x14ac:dyDescent="0.7">
-      <c r="AI7" s="15" t="s">
+      <c r="AI7" s="14" t="s">
         <v>176</v>
       </c>
       <c r="AO7" s="12"/>
@@ -10098,7 +9912,7 @@
       <c r="AS7" s="11"/>
     </row>
     <row r="8" spans="5:45" ht="31" x14ac:dyDescent="0.7">
-      <c r="AI8" s="15" t="s">
+      <c r="AI8" s="14" t="s">
         <v>167</v>
       </c>
       <c r="AJ8" s="12"/>
@@ -10113,7 +9927,7 @@
       <c r="AS8" s="11"/>
     </row>
     <row r="9" spans="5:45" ht="31" x14ac:dyDescent="0.7">
-      <c r="AI9" s="15" t="s">
+      <c r="AI9" s="14" t="s">
         <v>168</v>
       </c>
       <c r="AJ9" s="12"/>
@@ -10128,8 +9942,8 @@
       <c r="AS9" s="11"/>
     </row>
     <row r="10" spans="5:45" ht="31" x14ac:dyDescent="0.7">
-      <c r="E10" s="16"/>
-      <c r="AI10" s="15" t="s">
+      <c r="E10" s="15"/>
+      <c r="AI10" s="14" t="s">
         <v>169</v>
       </c>
       <c r="AJ10" s="12"/>
@@ -10144,7 +9958,7 @@
       <c r="AS10" s="11"/>
     </row>
     <row r="11" spans="5:45" ht="31" x14ac:dyDescent="0.7">
-      <c r="AI11" s="15" t="s">
+      <c r="AI11" s="14" t="s">
         <v>170</v>
       </c>
       <c r="AJ11" s="12"/>
@@ -10159,7 +9973,7 @@
       <c r="AS11" s="11"/>
     </row>
     <row r="12" spans="5:45" ht="31" x14ac:dyDescent="0.7">
-      <c r="AI12" s="15" t="s">
+      <c r="AI12" s="14" t="s">
         <v>171</v>
       </c>
       <c r="AJ12" s="12"/>
@@ -10169,7 +9983,7 @@
       <c r="AN12" s="12"/>
     </row>
     <row r="13" spans="5:45" ht="31" x14ac:dyDescent="0.7">
-      <c r="AI13" s="15" t="s">
+      <c r="AI13" s="14" t="s">
         <v>172</v>
       </c>
       <c r="AJ13" s="12"/>
@@ -10179,7 +9993,7 @@
       <c r="AN13" s="12"/>
     </row>
     <row r="14" spans="5:45" ht="31" x14ac:dyDescent="0.7">
-      <c r="AI14" s="15" t="s">
+      <c r="AI14" s="14" t="s">
         <v>173</v>
       </c>
       <c r="AJ14" s="12"/>
@@ -10207,7 +10021,7 @@
   <dimension ref="B1:J299"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10297,7 +10111,7 @@
       <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="17" t="str">
+      <c r="C2" s="16" t="str">
         <f>VLOOKUP(B2,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10317,7 +10131,7 @@
       <c r="B3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="C3" s="16" t="str">
         <f>VLOOKUP(B3,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10337,7 +10151,7 @@
       <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="17" t="str">
+      <c r="C4" s="16" t="str">
         <f>VLOOKUP(B4,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10363,7 +10177,7 @@
       <c r="B5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="17" t="str">
+      <c r="C5" s="16" t="str">
         <f>VLOOKUP(B5,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10383,7 +10197,7 @@
       <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="16" t="str">
         <f>VLOOKUP(B6,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10412,7 +10226,7 @@
       <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="16" t="str">
         <f>VLOOKUP(B7,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10430,10 +10244,10 @@
       <c r="H7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="17">
         <v>0</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="17">
         <v>11</v>
       </c>
     </row>
@@ -10441,7 +10255,7 @@
       <c r="B8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="16" t="str">
         <f>VLOOKUP(B8,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10459,10 +10273,10 @@
       <c r="H8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="17">
         <v>0.5</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="17">
         <v>10</v>
       </c>
     </row>
@@ -10470,7 +10284,7 @@
       <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="16" t="str">
         <f>VLOOKUP(B9,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10488,10 +10302,10 @@
       <c r="H9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="17">
         <v>1</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="17">
         <v>9</v>
       </c>
     </row>
@@ -10499,7 +10313,7 @@
       <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="16" t="str">
         <f>VLOOKUP(B10,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10517,10 +10331,10 @@
       <c r="H10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="17">
         <v>1.5</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="17">
         <v>8</v>
       </c>
     </row>
@@ -10528,7 +10342,7 @@
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="16" t="str">
         <f>VLOOKUP(B11,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10546,10 +10360,10 @@
       <c r="H11" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="17">
         <v>2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="17">
         <v>7</v>
       </c>
     </row>
@@ -10557,7 +10371,7 @@
       <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="16" t="str">
         <f>VLOOKUP(B12,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10575,10 +10389,10 @@
       <c r="H12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="17">
         <v>2.5</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="17">
         <v>6</v>
       </c>
     </row>
@@ -10586,7 +10400,7 @@
       <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="16" t="str">
         <f>VLOOKUP(B13,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10604,10 +10418,10 @@
       <c r="H13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="17">
         <v>3</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="17">
         <v>5</v>
       </c>
     </row>
@@ -10615,7 +10429,7 @@
       <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="16" t="str">
         <f>VLOOKUP(B14,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10633,10 +10447,10 @@
       <c r="H14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="17">
         <v>3.5</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="17">
         <v>4</v>
       </c>
     </row>
@@ -10644,7 +10458,7 @@
       <c r="B15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="16" t="str">
         <f>VLOOKUP(B15,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10662,10 +10476,10 @@
       <c r="H15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="17">
         <v>4</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="17">
         <v>3</v>
       </c>
     </row>
@@ -10673,7 +10487,7 @@
       <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="16" t="str">
         <f>VLOOKUP(B16,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10691,10 +10505,10 @@
       <c r="H16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="17">
         <v>4.5</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="17">
         <v>2</v>
       </c>
     </row>
@@ -10702,7 +10516,7 @@
       <c r="B17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="16" t="str">
         <f>VLOOKUP(B17,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10720,10 +10534,10 @@
       <c r="H17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="17">
         <v>5</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="17">
         <v>1</v>
       </c>
     </row>
@@ -10731,7 +10545,7 @@
       <c r="B18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="16" t="str">
         <f>VLOOKUP(B18,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10749,10 +10563,10 @@
       <c r="H18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="17">
         <v>27.5</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="17">
         <v>66</v>
       </c>
     </row>
@@ -10760,7 +10574,7 @@
       <c r="B19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="16" t="str">
         <f>VLOOKUP(B19,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10780,7 +10594,7 @@
       <c r="B20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C20" s="16" t="str">
         <f>VLOOKUP(B20,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10800,7 +10614,7 @@
       <c r="B21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C21" s="16" t="str">
         <f>VLOOKUP(B21,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10820,7 +10634,7 @@
       <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="16" t="str">
         <f>VLOOKUP(B22,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10840,7 +10654,7 @@
       <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="16" t="str">
         <f>VLOOKUP(B23,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10860,7 +10674,7 @@
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="17" t="str">
+      <c r="C24" s="16" t="str">
         <f>VLOOKUP(B24,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10880,7 +10694,7 @@
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="16" t="str">
         <f>VLOOKUP(B25,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10900,7 +10714,7 @@
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="16" t="str">
         <f>VLOOKUP(B26,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10920,7 +10734,7 @@
       <c r="B27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C27" s="16" t="str">
         <f>VLOOKUP(B27,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10940,7 +10754,7 @@
       <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="16" t="str">
         <f>VLOOKUP(B28,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10960,7 +10774,7 @@
       <c r="B29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="16" t="str">
         <f>VLOOKUP(B29,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -10980,7 +10794,7 @@
       <c r="B30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C30" s="16" t="str">
         <f>VLOOKUP(B30,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11000,7 +10814,7 @@
       <c r="B31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="17" t="str">
+      <c r="C31" s="16" t="str">
         <f>VLOOKUP(B31,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11020,7 +10834,7 @@
       <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="17" t="str">
+      <c r="C32" s="16" t="str">
         <f>VLOOKUP(B32,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11040,7 +10854,7 @@
       <c r="B33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="17" t="str">
+      <c r="C33" s="16" t="str">
         <f>VLOOKUP(B33,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11060,7 +10874,7 @@
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="17" t="str">
+      <c r="C34" s="16" t="str">
         <f>VLOOKUP(B34,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11080,7 +10894,7 @@
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="17" t="str">
+      <c r="C35" s="16" t="str">
         <f>VLOOKUP(B35,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11100,7 +10914,7 @@
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="17" t="str">
+      <c r="C36" s="16" t="str">
         <f>VLOOKUP(B36,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11120,7 +10934,7 @@
       <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="17" t="str">
+      <c r="C37" s="16" t="str">
         <f>VLOOKUP(B37,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11140,7 +10954,7 @@
       <c r="B38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="17" t="str">
+      <c r="C38" s="16" t="str">
         <f>VLOOKUP(B38,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11160,7 +10974,7 @@
       <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="17" t="str">
+      <c r="C39" s="16" t="str">
         <f>VLOOKUP(B39,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11180,7 +10994,7 @@
       <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="17" t="str">
+      <c r="C40" s="16" t="str">
         <f>VLOOKUP(B40,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11200,7 +11014,7 @@
       <c r="B41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="17" t="str">
+      <c r="C41" s="16" t="str">
         <f>VLOOKUP(B41,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11220,7 +11034,7 @@
       <c r="B42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="17" t="str">
+      <c r="C42" s="16" t="str">
         <f>VLOOKUP(B42,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11240,7 +11054,7 @@
       <c r="B43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="17" t="str">
+      <c r="C43" s="16" t="str">
         <f>VLOOKUP(B43,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11260,7 +11074,7 @@
       <c r="B44" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="17" t="str">
+      <c r="C44" s="16" t="str">
         <f>VLOOKUP(B44,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11280,7 +11094,7 @@
       <c r="B45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="17" t="str">
+      <c r="C45" s="16" t="str">
         <f>VLOOKUP(B45,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11300,7 +11114,7 @@
       <c r="B46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="17" t="str">
+      <c r="C46" s="16" t="str">
         <f>VLOOKUP(B46,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11320,7 +11134,7 @@
       <c r="B47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="17" t="str">
+      <c r="C47" s="16" t="str">
         <f>VLOOKUP(B47,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11340,7 +11154,7 @@
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="17" t="str">
+      <c r="C48" s="16" t="str">
         <f>VLOOKUP(B48,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11360,7 +11174,7 @@
       <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="17" t="str">
+      <c r="C49" s="16" t="str">
         <f>VLOOKUP(B49,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11380,7 +11194,7 @@
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="17" t="str">
+      <c r="C50" s="16" t="str">
         <f>VLOOKUP(B50,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11400,7 +11214,7 @@
       <c r="B51" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="17" t="str">
+      <c r="C51" s="16" t="str">
         <f>VLOOKUP(B51,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11420,7 +11234,7 @@
       <c r="B52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="17" t="str">
+      <c r="C52" s="16" t="str">
         <f>VLOOKUP(B52,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11440,7 +11254,7 @@
       <c r="B53" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="17" t="str">
+      <c r="C53" s="16" t="str">
         <f>VLOOKUP(B53,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11460,7 +11274,7 @@
       <c r="B54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="17" t="str">
+      <c r="C54" s="16" t="str">
         <f>VLOOKUP(B54,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11480,7 +11294,7 @@
       <c r="B55" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="17" t="str">
+      <c r="C55" s="16" t="str">
         <f>VLOOKUP(B55,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11500,7 +11314,7 @@
       <c r="B56" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="17" t="str">
+      <c r="C56" s="16" t="str">
         <f>VLOOKUP(B56,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Carbs</v>
       </c>
@@ -11520,7 +11334,7 @@
       <c r="B57" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="17" t="str">
+      <c r="C57" s="16" t="str">
         <f>VLOOKUP(B57,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11540,7 +11354,7 @@
       <c r="B58" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="17" t="str">
+      <c r="C58" s="16" t="str">
         <f>VLOOKUP(B58,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11560,7 +11374,7 @@
       <c r="B59" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="17" t="str">
+      <c r="C59" s="16" t="str">
         <f>VLOOKUP(B59,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11580,7 +11394,7 @@
       <c r="B60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="17" t="str">
+      <c r="C60" s="16" t="str">
         <f>VLOOKUP(B60,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11600,7 +11414,7 @@
       <c r="B61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="17" t="str">
+      <c r="C61" s="16" t="str">
         <f>VLOOKUP(B61,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11620,7 +11434,7 @@
       <c r="B62" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="17" t="str">
+      <c r="C62" s="16" t="str">
         <f>VLOOKUP(B62,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11640,7 +11454,7 @@
       <c r="B63" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="17" t="str">
+      <c r="C63" s="16" t="str">
         <f>VLOOKUP(B63,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11660,7 +11474,7 @@
       <c r="B64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="17" t="str">
+      <c r="C64" s="16" t="str">
         <f>VLOOKUP(B64,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11680,7 +11494,7 @@
       <c r="B65" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="17" t="str">
+      <c r="C65" s="16" t="str">
         <f>VLOOKUP(B65,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11700,7 +11514,7 @@
       <c r="B66" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="17" t="str">
+      <c r="C66" s="16" t="str">
         <f>VLOOKUP(B66,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11720,7 +11534,7 @@
       <c r="B67" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="17" t="str">
+      <c r="C67" s="16" t="str">
         <f>VLOOKUP(B67,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11740,7 +11554,7 @@
       <c r="B68" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="17" t="str">
+      <c r="C68" s="16" t="str">
         <f>VLOOKUP(B68,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11760,7 +11574,7 @@
       <c r="B69" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="17" t="str">
+      <c r="C69" s="16" t="str">
         <f>VLOOKUP(B69,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11780,7 +11594,7 @@
       <c r="B70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="17" t="str">
+      <c r="C70" s="16" t="str">
         <f>VLOOKUP(B70,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11800,7 +11614,7 @@
       <c r="B71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="17" t="str">
+      <c r="C71" s="16" t="str">
         <f>VLOOKUP(B71,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11820,7 +11634,7 @@
       <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="17" t="str">
+      <c r="C72" s="16" t="str">
         <f>VLOOKUP(B72,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11840,7 +11654,7 @@
       <c r="B73" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="17" t="str">
+      <c r="C73" s="16" t="str">
         <f>VLOOKUP(B73,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11860,7 +11674,7 @@
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="17" t="str">
+      <c r="C74" s="16" t="str">
         <f>VLOOKUP(B74,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11880,7 +11694,7 @@
       <c r="B75" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="17" t="str">
+      <c r="C75" s="16" t="str">
         <f>VLOOKUP(B75,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11900,7 +11714,7 @@
       <c r="B76" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="17" t="str">
+      <c r="C76" s="16" t="str">
         <f>VLOOKUP(B76,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11920,7 +11734,7 @@
       <c r="B77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="17" t="str">
+      <c r="C77" s="16" t="str">
         <f>VLOOKUP(B77,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11940,7 +11754,7 @@
       <c r="B78" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="17" t="str">
+      <c r="C78" s="16" t="str">
         <f>VLOOKUP(B78,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11960,7 +11774,7 @@
       <c r="B79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="17" t="str">
+      <c r="C79" s="16" t="str">
         <f>VLOOKUP(B79,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -11980,7 +11794,7 @@
       <c r="B80" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="17" t="str">
+      <c r="C80" s="16" t="str">
         <f>VLOOKUP(B80,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12000,7 +11814,7 @@
       <c r="B81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="17" t="str">
+      <c r="C81" s="16" t="str">
         <f>VLOOKUP(B81,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12020,7 +11834,7 @@
       <c r="B82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="17" t="str">
+      <c r="C82" s="16" t="str">
         <f>VLOOKUP(B82,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12040,7 +11854,7 @@
       <c r="B83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="17" t="str">
+      <c r="C83" s="16" t="str">
         <f>VLOOKUP(B83,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12060,7 +11874,7 @@
       <c r="B84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="17" t="str">
+      <c r="C84" s="16" t="str">
         <f>VLOOKUP(B84,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12080,7 +11894,7 @@
       <c r="B85" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="17" t="str">
+      <c r="C85" s="16" t="str">
         <f>VLOOKUP(B85,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12100,7 +11914,7 @@
       <c r="B86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="17" t="str">
+      <c r="C86" s="16" t="str">
         <f>VLOOKUP(B86,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12120,7 +11934,7 @@
       <c r="B87" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C87" s="17" t="str">
+      <c r="C87" s="16" t="str">
         <f>VLOOKUP(B87,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12140,7 +11954,7 @@
       <c r="B88" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="17" t="str">
+      <c r="C88" s="16" t="str">
         <f>VLOOKUP(B88,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12160,7 +11974,7 @@
       <c r="B89" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C89" s="17" t="str">
+      <c r="C89" s="16" t="str">
         <f>VLOOKUP(B89,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12180,7 +11994,7 @@
       <c r="B90" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C90" s="17" t="str">
+      <c r="C90" s="16" t="str">
         <f>VLOOKUP(B90,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12200,7 +12014,7 @@
       <c r="B91" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="17" t="str">
+      <c r="C91" s="16" t="str">
         <f>VLOOKUP(B91,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12220,7 +12034,7 @@
       <c r="B92" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="17" t="str">
+      <c r="C92" s="16" t="str">
         <f>VLOOKUP(B92,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12240,7 +12054,7 @@
       <c r="B93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="17" t="str">
+      <c r="C93" s="16" t="str">
         <f>VLOOKUP(B93,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12260,7 +12074,7 @@
       <c r="B94" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="17" t="str">
+      <c r="C94" s="16" t="str">
         <f>VLOOKUP(B94,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12280,7 +12094,7 @@
       <c r="B95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="17" t="str">
+      <c r="C95" s="16" t="str">
         <f>VLOOKUP(B95,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12300,7 +12114,7 @@
       <c r="B96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="17" t="str">
+      <c r="C96" s="16" t="str">
         <f>VLOOKUP(B96,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12320,7 +12134,7 @@
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C97" s="17" t="str">
+      <c r="C97" s="16" t="str">
         <f>VLOOKUP(B97,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12340,7 +12154,7 @@
       <c r="B98" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="17" t="str">
+      <c r="C98" s="16" t="str">
         <f>VLOOKUP(B98,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12360,7 +12174,7 @@
       <c r="B99" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C99" s="17" t="str">
+      <c r="C99" s="16" t="str">
         <f>VLOOKUP(B99,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12380,7 +12194,7 @@
       <c r="B100" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C100" s="17" t="str">
+      <c r="C100" s="16" t="str">
         <f>VLOOKUP(B100,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12400,7 +12214,7 @@
       <c r="B101" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="17" t="str">
+      <c r="C101" s="16" t="str">
         <f>VLOOKUP(B101,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12420,7 +12234,7 @@
       <c r="B102" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C102" s="17" t="str">
+      <c r="C102" s="16" t="str">
         <f>VLOOKUP(B102,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12440,7 +12254,7 @@
       <c r="B103" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C103" s="17" t="str">
+      <c r="C103" s="16" t="str">
         <f>VLOOKUP(B103,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12460,7 +12274,7 @@
       <c r="B104" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="17" t="str">
+      <c r="C104" s="16" t="str">
         <f>VLOOKUP(B104,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12480,7 +12294,7 @@
       <c r="B105" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="17" t="str">
+      <c r="C105" s="16" t="str">
         <f>VLOOKUP(B105,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12500,7 +12314,7 @@
       <c r="B106" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C106" s="17" t="str">
+      <c r="C106" s="16" t="str">
         <f>VLOOKUP(B106,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12520,7 +12334,7 @@
       <c r="B107" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C107" s="17" t="str">
+      <c r="C107" s="16" t="str">
         <f>VLOOKUP(B107,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12540,7 +12354,7 @@
       <c r="B108" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="17" t="str">
+      <c r="C108" s="16" t="str">
         <f>VLOOKUP(B108,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12560,7 +12374,7 @@
       <c r="B109" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C109" s="17" t="str">
+      <c r="C109" s="16" t="str">
         <f>VLOOKUP(B109,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12580,7 +12394,7 @@
       <c r="B110" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C110" s="17" t="str">
+      <c r="C110" s="16" t="str">
         <f>VLOOKUP(B110,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12600,7 +12414,7 @@
       <c r="B111" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="17" t="str">
+      <c r="C111" s="16" t="str">
         <f>VLOOKUP(B111,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12620,7 +12434,7 @@
       <c r="B112" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C112" s="17" t="str">
+      <c r="C112" s="16" t="str">
         <f>VLOOKUP(B112,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12640,7 +12454,7 @@
       <c r="B113" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C113" s="17" t="str">
+      <c r="C113" s="16" t="str">
         <f>VLOOKUP(B113,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12660,7 +12474,7 @@
       <c r="B114" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="17" t="str">
+      <c r="C114" s="16" t="str">
         <f>VLOOKUP(B114,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12680,7 +12494,7 @@
       <c r="B115" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C115" s="17" t="str">
+      <c r="C115" s="16" t="str">
         <f>VLOOKUP(B115,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12700,7 +12514,7 @@
       <c r="B116" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="17" t="str">
+      <c r="C116" s="16" t="str">
         <f>VLOOKUP(B116,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12720,7 +12534,7 @@
       <c r="B117" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C117" s="17" t="str">
+      <c r="C117" s="16" t="str">
         <f>VLOOKUP(B117,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12740,7 +12554,7 @@
       <c r="B118" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C118" s="17" t="str">
+      <c r="C118" s="16" t="str">
         <f>VLOOKUP(B118,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12760,7 +12574,7 @@
       <c r="B119" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C119" s="17" t="str">
+      <c r="C119" s="16" t="str">
         <f>VLOOKUP(B119,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12780,7 +12594,7 @@
       <c r="B120" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C120" s="17" t="str">
+      <c r="C120" s="16" t="str">
         <f>VLOOKUP(B120,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12800,7 +12614,7 @@
       <c r="B121" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C121" s="17" t="str">
+      <c r="C121" s="16" t="str">
         <f>VLOOKUP(B121,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12820,7 +12634,7 @@
       <c r="B122" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C122" s="17" t="str">
+      <c r="C122" s="16" t="str">
         <f>VLOOKUP(B122,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12840,7 +12654,7 @@
       <c r="B123" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C123" s="17" t="str">
+      <c r="C123" s="16" t="str">
         <f>VLOOKUP(B123,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12860,7 +12674,7 @@
       <c r="B124" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C124" s="17" t="str">
+      <c r="C124" s="16" t="str">
         <f>VLOOKUP(B124,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12880,7 +12694,7 @@
       <c r="B125" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C125" s="17" t="str">
+      <c r="C125" s="16" t="str">
         <f>VLOOKUP(B125,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12900,7 +12714,7 @@
       <c r="B126" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C126" s="17" t="str">
+      <c r="C126" s="16" t="str">
         <f>VLOOKUP(B126,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12920,7 +12734,7 @@
       <c r="B127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C127" s="17" t="str">
+      <c r="C127" s="16" t="str">
         <f>VLOOKUP(B127,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12940,7 +12754,7 @@
       <c r="B128" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C128" s="17" t="str">
+      <c r="C128" s="16" t="str">
         <f>VLOOKUP(B128,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12960,7 +12774,7 @@
       <c r="B129" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C129" s="17" t="str">
+      <c r="C129" s="16" t="str">
         <f>VLOOKUP(B129,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -12980,7 +12794,7 @@
       <c r="B130" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C130" s="17" t="str">
+      <c r="C130" s="16" t="str">
         <f>VLOOKUP(B130,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13000,7 +12814,7 @@
       <c r="B131" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C131" s="17" t="str">
+      <c r="C131" s="16" t="str">
         <f>VLOOKUP(B131,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13020,7 +12834,7 @@
       <c r="B132" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C132" s="17" t="str">
+      <c r="C132" s="16" t="str">
         <f>VLOOKUP(B132,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13040,7 +12854,7 @@
       <c r="B133" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C133" s="17" t="str">
+      <c r="C133" s="16" t="str">
         <f>VLOOKUP(B133,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13060,7 +12874,7 @@
       <c r="B134" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="17" t="str">
+      <c r="C134" s="16" t="str">
         <f>VLOOKUP(B134,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13080,7 +12894,7 @@
       <c r="B135" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C135" s="17" t="str">
+      <c r="C135" s="16" t="str">
         <f>VLOOKUP(B135,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13100,7 +12914,7 @@
       <c r="B136" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C136" s="17" t="str">
+      <c r="C136" s="16" t="str">
         <f>VLOOKUP(B136,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13120,7 +12934,7 @@
       <c r="B137" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C137" s="17" t="str">
+      <c r="C137" s="16" t="str">
         <f>VLOOKUP(B137,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13140,7 +12954,7 @@
       <c r="B138" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C138" s="17" t="str">
+      <c r="C138" s="16" t="str">
         <f>VLOOKUP(B138,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13160,7 +12974,7 @@
       <c r="B139" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C139" s="17" t="str">
+      <c r="C139" s="16" t="str">
         <f>VLOOKUP(B139,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13180,7 +12994,7 @@
       <c r="B140" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C140" s="17" t="str">
+      <c r="C140" s="16" t="str">
         <f>VLOOKUP(B140,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13200,7 +13014,7 @@
       <c r="B141" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C141" s="17" t="str">
+      <c r="C141" s="16" t="str">
         <f>VLOOKUP(B141,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13220,7 +13034,7 @@
       <c r="B142" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C142" s="17" t="str">
+      <c r="C142" s="16" t="str">
         <f>VLOOKUP(B142,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13240,7 +13054,7 @@
       <c r="B143" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C143" s="17" t="str">
+      <c r="C143" s="16" t="str">
         <f>VLOOKUP(B143,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13260,7 +13074,7 @@
       <c r="B144" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C144" s="17" t="str">
+      <c r="C144" s="16" t="str">
         <f>VLOOKUP(B144,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13280,7 +13094,7 @@
       <c r="B145" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C145" s="17" t="str">
+      <c r="C145" s="16" t="str">
         <f>VLOOKUP(B145,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13300,7 +13114,7 @@
       <c r="B146" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C146" s="17" t="str">
+      <c r="C146" s="16" t="str">
         <f>VLOOKUP(B146,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13320,7 +13134,7 @@
       <c r="B147" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C147" s="17" t="str">
+      <c r="C147" s="16" t="str">
         <f>VLOOKUP(B147,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13340,7 +13154,7 @@
       <c r="B148" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C148" s="17" t="str">
+      <c r="C148" s="16" t="str">
         <f>VLOOKUP(B148,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13360,7 +13174,7 @@
       <c r="B149" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C149" s="17" t="str">
+      <c r="C149" s="16" t="str">
         <f>VLOOKUP(B149,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13380,7 +13194,7 @@
       <c r="B150" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C150" s="17" t="str">
+      <c r="C150" s="16" t="str">
         <f>VLOOKUP(B150,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13400,7 +13214,7 @@
       <c r="B151" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C151" s="17" t="str">
+      <c r="C151" s="16" t="str">
         <f>VLOOKUP(B151,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Protein</v>
       </c>
@@ -13420,7 +13234,7 @@
       <c r="B152" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C152" s="17" t="str">
+      <c r="C152" s="16" t="str">
         <f>VLOOKUP(B152,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13440,7 +13254,7 @@
       <c r="B153" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C153" s="17" t="str">
+      <c r="C153" s="16" t="str">
         <f>VLOOKUP(B153,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13460,7 +13274,7 @@
       <c r="B154" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C154" s="17" t="str">
+      <c r="C154" s="16" t="str">
         <f>VLOOKUP(B154,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13480,7 +13294,7 @@
       <c r="B155" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C155" s="17" t="str">
+      <c r="C155" s="16" t="str">
         <f>VLOOKUP(B155,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13500,7 +13314,7 @@
       <c r="B156" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C156" s="17" t="str">
+      <c r="C156" s="16" t="str">
         <f>VLOOKUP(B156,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13520,7 +13334,7 @@
       <c r="B157" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C157" s="17" t="str">
+      <c r="C157" s="16" t="str">
         <f>VLOOKUP(B157,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13540,7 +13354,7 @@
       <c r="B158" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C158" s="17" t="str">
+      <c r="C158" s="16" t="str">
         <f>VLOOKUP(B158,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13560,7 +13374,7 @@
       <c r="B159" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C159" s="17" t="str">
+      <c r="C159" s="16" t="str">
         <f>VLOOKUP(B159,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13580,7 +13394,7 @@
       <c r="B160" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C160" s="17" t="str">
+      <c r="C160" s="16" t="str">
         <f>VLOOKUP(B160,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13600,7 +13414,7 @@
       <c r="B161" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C161" s="17" t="str">
+      <c r="C161" s="16" t="str">
         <f>VLOOKUP(B161,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13620,7 +13434,7 @@
       <c r="B162" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C162" s="17" t="str">
+      <c r="C162" s="16" t="str">
         <f>VLOOKUP(B162,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13640,7 +13454,7 @@
       <c r="B163" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C163" s="17" t="str">
+      <c r="C163" s="16" t="str">
         <f>VLOOKUP(B163,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13660,7 +13474,7 @@
       <c r="B164" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C164" s="17" t="str">
+      <c r="C164" s="16" t="str">
         <f>VLOOKUP(B164,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13680,7 +13494,7 @@
       <c r="B165" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C165" s="17" t="str">
+      <c r="C165" s="16" t="str">
         <f>VLOOKUP(B165,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13700,7 +13514,7 @@
       <c r="B166" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C166" s="17" t="str">
+      <c r="C166" s="16" t="str">
         <f>VLOOKUP(B166,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13720,7 +13534,7 @@
       <c r="B167" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C167" s="17" t="str">
+      <c r="C167" s="16" t="str">
         <f>VLOOKUP(B167,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13740,7 +13554,7 @@
       <c r="B168" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C168" s="17" t="str">
+      <c r="C168" s="16" t="str">
         <f>VLOOKUP(B168,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13760,7 +13574,7 @@
       <c r="B169" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C169" s="17" t="str">
+      <c r="C169" s="16" t="str">
         <f>VLOOKUP(B169,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13780,7 +13594,7 @@
       <c r="B170" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C170" s="17" t="str">
+      <c r="C170" s="16" t="str">
         <f>VLOOKUP(B170,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13800,7 +13614,7 @@
       <c r="B171" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C171" s="17" t="str">
+      <c r="C171" s="16" t="str">
         <f>VLOOKUP(B171,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13820,7 +13634,7 @@
       <c r="B172" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C172" s="17" t="str">
+      <c r="C172" s="16" t="str">
         <f>VLOOKUP(B172,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13840,7 +13654,7 @@
       <c r="B173" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C173" s="17" t="str">
+      <c r="C173" s="16" t="str">
         <f>VLOOKUP(B173,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13860,7 +13674,7 @@
       <c r="B174" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C174" s="17" t="str">
+      <c r="C174" s="16" t="str">
         <f>VLOOKUP(B174,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13880,7 +13694,7 @@
       <c r="B175" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C175" s="17" t="str">
+      <c r="C175" s="16" t="str">
         <f>VLOOKUP(B175,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13900,7 +13714,7 @@
       <c r="B176" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C176" s="17" t="str">
+      <c r="C176" s="16" t="str">
         <f>VLOOKUP(B176,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13920,7 +13734,7 @@
       <c r="B177" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C177" s="17" t="str">
+      <c r="C177" s="16" t="str">
         <f>VLOOKUP(B177,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13940,7 +13754,7 @@
       <c r="B178" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C178" s="17" t="str">
+      <c r="C178" s="16" t="str">
         <f>VLOOKUP(B178,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13960,7 +13774,7 @@
       <c r="B179" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C179" s="17" t="str">
+      <c r="C179" s="16" t="str">
         <f>VLOOKUP(B179,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -13980,7 +13794,7 @@
       <c r="B180" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C180" s="17" t="str">
+      <c r="C180" s="16" t="str">
         <f>VLOOKUP(B180,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14000,7 +13814,7 @@
       <c r="B181" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C181" s="17" t="str">
+      <c r="C181" s="16" t="str">
         <f>VLOOKUP(B181,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14020,7 +13834,7 @@
       <c r="B182" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C182" s="17" t="str">
+      <c r="C182" s="16" t="str">
         <f>VLOOKUP(B182,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14040,7 +13854,7 @@
       <c r="B183" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C183" s="17" t="str">
+      <c r="C183" s="16" t="str">
         <f>VLOOKUP(B183,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14060,7 +13874,7 @@
       <c r="B184" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C184" s="17" t="str">
+      <c r="C184" s="16" t="str">
         <f>VLOOKUP(B184,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14080,7 +13894,7 @@
       <c r="B185" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="17" t="str">
+      <c r="C185" s="16" t="str">
         <f>VLOOKUP(B185,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14100,7 +13914,7 @@
       <c r="B186" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C186" s="17" t="str">
+      <c r="C186" s="16" t="str">
         <f>VLOOKUP(B186,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14120,7 +13934,7 @@
       <c r="B187" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C187" s="17" t="str">
+      <c r="C187" s="16" t="str">
         <f>VLOOKUP(B187,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14140,7 +13954,7 @@
       <c r="B188" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C188" s="17" t="str">
+      <c r="C188" s="16" t="str">
         <f>VLOOKUP(B188,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14160,7 +13974,7 @@
       <c r="B189" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C189" s="17" t="str">
+      <c r="C189" s="16" t="str">
         <f>VLOOKUP(B189,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14180,7 +13994,7 @@
       <c r="B190" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C190" s="17" t="str">
+      <c r="C190" s="16" t="str">
         <f>VLOOKUP(B190,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14200,7 +14014,7 @@
       <c r="B191" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C191" s="17" t="str">
+      <c r="C191" s="16" t="str">
         <f>VLOOKUP(B191,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14220,7 +14034,7 @@
       <c r="B192" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C192" s="17" t="str">
+      <c r="C192" s="16" t="str">
         <f>VLOOKUP(B192,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14240,7 +14054,7 @@
       <c r="B193" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C193" s="17" t="str">
+      <c r="C193" s="16" t="str">
         <f>VLOOKUP(B193,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14260,7 +14074,7 @@
       <c r="B194" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C194" s="17" t="str">
+      <c r="C194" s="16" t="str">
         <f>VLOOKUP(B194,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14280,7 +14094,7 @@
       <c r="B195" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C195" s="17" t="str">
+      <c r="C195" s="16" t="str">
         <f>VLOOKUP(B195,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14300,7 +14114,7 @@
       <c r="B196" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C196" s="17" t="str">
+      <c r="C196" s="16" t="str">
         <f>VLOOKUP(B196,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14320,7 +14134,7 @@
       <c r="B197" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C197" s="17" t="str">
+      <c r="C197" s="16" t="str">
         <f>VLOOKUP(B197,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14340,7 +14154,7 @@
       <c r="B198" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C198" s="17" t="str">
+      <c r="C198" s="16" t="str">
         <f>VLOOKUP(B198,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14360,7 +14174,7 @@
       <c r="B199" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C199" s="17" t="str">
+      <c r="C199" s="16" t="str">
         <f>VLOOKUP(B199,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14380,7 +14194,7 @@
       <c r="B200" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C200" s="17" t="str">
+      <c r="C200" s="16" t="str">
         <f>VLOOKUP(B200,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14400,7 +14214,7 @@
       <c r="B201" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C201" s="17" t="str">
+      <c r="C201" s="16" t="str">
         <f>VLOOKUP(B201,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14420,7 +14234,7 @@
       <c r="B202" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C202" s="17" t="str">
+      <c r="C202" s="16" t="str">
         <f>VLOOKUP(B202,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14440,7 +14254,7 @@
       <c r="B203" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C203" s="17" t="str">
+      <c r="C203" s="16" t="str">
         <f>VLOOKUP(B203,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14460,7 +14274,7 @@
       <c r="B204" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C204" s="17" t="str">
+      <c r="C204" s="16" t="str">
         <f>VLOOKUP(B204,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14480,7 +14294,7 @@
       <c r="B205" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C205" s="17" t="str">
+      <c r="C205" s="16" t="str">
         <f>VLOOKUP(B205,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14500,7 +14314,7 @@
       <c r="B206" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C206" s="17" t="str">
+      <c r="C206" s="16" t="str">
         <f>VLOOKUP(B206,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14520,7 +14334,7 @@
       <c r="B207" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C207" s="17" t="str">
+      <c r="C207" s="16" t="str">
         <f>VLOOKUP(B207,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14540,7 +14354,7 @@
       <c r="B208" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C208" s="17" t="str">
+      <c r="C208" s="16" t="str">
         <f>VLOOKUP(B208,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14560,7 +14374,7 @@
       <c r="B209" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C209" s="17" t="str">
+      <c r="C209" s="16" t="str">
         <f>VLOOKUP(B209,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14580,7 +14394,7 @@
       <c r="B210" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C210" s="17" t="str">
+      <c r="C210" s="16" t="str">
         <f>VLOOKUP(B210,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14600,7 +14414,7 @@
       <c r="B211" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C211" s="17" t="str">
+      <c r="C211" s="16" t="str">
         <f>VLOOKUP(B211,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14620,7 +14434,7 @@
       <c r="B212" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C212" s="17" t="str">
+      <c r="C212" s="16" t="str">
         <f>VLOOKUP(B212,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14640,7 +14454,7 @@
       <c r="B213" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C213" s="17" t="str">
+      <c r="C213" s="16" t="str">
         <f>VLOOKUP(B213,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14660,7 +14474,7 @@
       <c r="B214" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C214" s="17" t="str">
+      <c r="C214" s="16" t="str">
         <f>VLOOKUP(B214,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14680,7 +14494,7 @@
       <c r="B215" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C215" s="17" t="str">
+      <c r="C215" s="16" t="str">
         <f>VLOOKUP(B215,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14700,7 +14514,7 @@
       <c r="B216" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C216" s="17" t="str">
+      <c r="C216" s="16" t="str">
         <f>VLOOKUP(B216,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14720,7 +14534,7 @@
       <c r="B217" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C217" s="17" t="str">
+      <c r="C217" s="16" t="str">
         <f>VLOOKUP(B217,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14740,7 +14554,7 @@
       <c r="B218" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C218" s="17" t="str">
+      <c r="C218" s="16" t="str">
         <f>VLOOKUP(B218,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14760,7 +14574,7 @@
       <c r="B219" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="17" t="str">
+      <c r="C219" s="16" t="str">
         <f>VLOOKUP(B219,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14780,7 +14594,7 @@
       <c r="B220" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C220" s="17" t="str">
+      <c r="C220" s="16" t="str">
         <f>VLOOKUP(B220,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14800,7 +14614,7 @@
       <c r="B221" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C221" s="17" t="str">
+      <c r="C221" s="16" t="str">
         <f>VLOOKUP(B221,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14820,7 +14634,7 @@
       <c r="B222" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C222" s="17" t="str">
+      <c r="C222" s="16" t="str">
         <f>VLOOKUP(B222,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14840,7 +14654,7 @@
       <c r="B223" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C223" s="17" t="str">
+      <c r="C223" s="16" t="str">
         <f>VLOOKUP(B223,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14860,7 +14674,7 @@
       <c r="B224" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C224" s="17" t="str">
+      <c r="C224" s="16" t="str">
         <f>VLOOKUP(B224,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14880,7 +14694,7 @@
       <c r="B225" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C225" s="17" t="str">
+      <c r="C225" s="16" t="str">
         <f>VLOOKUP(B225,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14900,7 +14714,7 @@
       <c r="B226" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C226" s="17" t="str">
+      <c r="C226" s="16" t="str">
         <f>VLOOKUP(B226,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14920,7 +14734,7 @@
       <c r="B227" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C227" s="17" t="str">
+      <c r="C227" s="16" t="str">
         <f>VLOOKUP(B227,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14940,7 +14754,7 @@
       <c r="B228" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C228" s="17" t="str">
+      <c r="C228" s="16" t="str">
         <f>VLOOKUP(B228,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14960,7 +14774,7 @@
       <c r="B229" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C229" s="17" t="str">
+      <c r="C229" s="16" t="str">
         <f>VLOOKUP(B229,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -14980,7 +14794,7 @@
       <c r="B230" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C230" s="17" t="str">
+      <c r="C230" s="16" t="str">
         <f>VLOOKUP(B230,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15000,7 +14814,7 @@
       <c r="B231" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C231" s="17" t="str">
+      <c r="C231" s="16" t="str">
         <f>VLOOKUP(B231,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15020,7 +14834,7 @@
       <c r="B232" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="17" t="str">
+      <c r="C232" s="16" t="str">
         <f>VLOOKUP(B232,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15040,7 +14854,7 @@
       <c r="B233" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C233" s="17" t="str">
+      <c r="C233" s="16" t="str">
         <f>VLOOKUP(B233,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15060,7 +14874,7 @@
       <c r="B234" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C234" s="17" t="str">
+      <c r="C234" s="16" t="str">
         <f>VLOOKUP(B234,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15080,7 +14894,7 @@
       <c r="B235" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C235" s="17" t="str">
+      <c r="C235" s="16" t="str">
         <f>VLOOKUP(B235,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15100,7 +14914,7 @@
       <c r="B236" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C236" s="17" t="str">
+      <c r="C236" s="16" t="str">
         <f>VLOOKUP(B236,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15120,7 +14934,7 @@
       <c r="B237" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C237" s="17" t="str">
+      <c r="C237" s="16" t="str">
         <f>VLOOKUP(B237,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15140,7 +14954,7 @@
       <c r="B238" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C238" s="17" t="str">
+      <c r="C238" s="16" t="str">
         <f>VLOOKUP(B238,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15160,7 +14974,7 @@
       <c r="B239" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C239" s="17" t="str">
+      <c r="C239" s="16" t="str">
         <f>VLOOKUP(B239,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15180,7 +14994,7 @@
       <c r="B240" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C240" s="17" t="str">
+      <c r="C240" s="16" t="str">
         <f>VLOOKUP(B240,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15200,7 +15014,7 @@
       <c r="B241" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C241" s="17" t="str">
+      <c r="C241" s="16" t="str">
         <f>VLOOKUP(B241,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15220,7 +15034,7 @@
       <c r="B242" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C242" s="17" t="str">
+      <c r="C242" s="16" t="str">
         <f>VLOOKUP(B242,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15240,7 +15054,7 @@
       <c r="B243" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C243" s="17" t="str">
+      <c r="C243" s="16" t="str">
         <f>VLOOKUP(B243,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15260,7 +15074,7 @@
       <c r="B244" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C244" s="17" t="str">
+      <c r="C244" s="16" t="str">
         <f>VLOOKUP(B244,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15280,7 +15094,7 @@
       <c r="B245" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C245" s="17" t="str">
+      <c r="C245" s="16" t="str">
         <f>VLOOKUP(B245,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15300,7 +15114,7 @@
       <c r="B246" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C246" s="17" t="str">
+      <c r="C246" s="16" t="str">
         <f>VLOOKUP(B246,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15320,7 +15134,7 @@
       <c r="B247" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C247" s="17" t="str">
+      <c r="C247" s="16" t="str">
         <f>VLOOKUP(B247,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15340,7 +15154,7 @@
       <c r="B248" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C248" s="17" t="str">
+      <c r="C248" s="16" t="str">
         <f>VLOOKUP(B248,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15360,7 +15174,7 @@
       <c r="B249" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C249" s="17" t="str">
+      <c r="C249" s="16" t="str">
         <f>VLOOKUP(B249,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15380,7 +15194,7 @@
       <c r="B250" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C250" s="17" t="str">
+      <c r="C250" s="16" t="str">
         <f>VLOOKUP(B250,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15400,7 +15214,7 @@
       <c r="B251" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C251" s="17" t="str">
+      <c r="C251" s="16" t="str">
         <f>VLOOKUP(B251,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15420,7 +15234,7 @@
       <c r="B252" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C252" s="17" t="str">
+      <c r="C252" s="16" t="str">
         <f>VLOOKUP(B252,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15440,7 +15254,7 @@
       <c r="B253" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C253" s="17" t="str">
+      <c r="C253" s="16" t="str">
         <f>VLOOKUP(B253,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15460,7 +15274,7 @@
       <c r="B254" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C254" s="17" t="str">
+      <c r="C254" s="16" t="str">
         <f>VLOOKUP(B254,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15480,7 +15294,7 @@
       <c r="B255" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C255" s="17" t="str">
+      <c r="C255" s="16" t="str">
         <f>VLOOKUP(B255,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15500,7 +15314,7 @@
       <c r="B256" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C256" s="17" t="str">
+      <c r="C256" s="16" t="str">
         <f>VLOOKUP(B256,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15520,7 +15334,7 @@
       <c r="B257" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C257" s="17" t="str">
+      <c r="C257" s="16" t="str">
         <f>VLOOKUP(B257,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15540,7 +15354,7 @@
       <c r="B258" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C258" s="17" t="str">
+      <c r="C258" s="16" t="str">
         <f>VLOOKUP(B258,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15560,7 +15374,7 @@
       <c r="B259" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C259" s="17" t="str">
+      <c r="C259" s="16" t="str">
         <f>VLOOKUP(B259,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15580,7 +15394,7 @@
       <c r="B260" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C260" s="17" t="str">
+      <c r="C260" s="16" t="str">
         <f>VLOOKUP(B260,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15600,7 +15414,7 @@
       <c r="B261" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C261" s="17" t="str">
+      <c r="C261" s="16" t="str">
         <f>VLOOKUP(B261,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15620,7 +15434,7 @@
       <c r="B262" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C262" s="17" t="str">
+      <c r="C262" s="16" t="str">
         <f>VLOOKUP(B262,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15640,7 +15454,7 @@
       <c r="B263" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C263" s="17" t="str">
+      <c r="C263" s="16" t="str">
         <f>VLOOKUP(B263,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15660,7 +15474,7 @@
       <c r="B264" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C264" s="17" t="str">
+      <c r="C264" s="16" t="str">
         <f>VLOOKUP(B264,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15680,7 +15494,7 @@
       <c r="B265" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C265" s="17" t="str">
+      <c r="C265" s="16" t="str">
         <f>VLOOKUP(B265,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15700,7 +15514,7 @@
       <c r="B266" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C266" s="17" t="str">
+      <c r="C266" s="16" t="str">
         <f>VLOOKUP(B266,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15720,7 +15534,7 @@
       <c r="B267" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C267" s="17" t="str">
+      <c r="C267" s="16" t="str">
         <f>VLOOKUP(B267,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15740,7 +15554,7 @@
       <c r="B268" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C268" s="17" t="str">
+      <c r="C268" s="16" t="str">
         <f>VLOOKUP(B268,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15760,7 +15574,7 @@
       <c r="B269" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C269" s="17" t="str">
+      <c r="C269" s="16" t="str">
         <f>VLOOKUP(B269,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15780,7 +15594,7 @@
       <c r="B270" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C270" s="17" t="str">
+      <c r="C270" s="16" t="str">
         <f>VLOOKUP(B270,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15800,7 +15614,7 @@
       <c r="B271" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C271" s="17" t="str">
+      <c r="C271" s="16" t="str">
         <f>VLOOKUP(B271,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15820,7 +15634,7 @@
       <c r="B272" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C272" s="17" t="str">
+      <c r="C272" s="16" t="str">
         <f>VLOOKUP(B272,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15840,7 +15654,7 @@
       <c r="B273" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C273" s="17" t="str">
+      <c r="C273" s="16" t="str">
         <f>VLOOKUP(B273,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15860,7 +15674,7 @@
       <c r="B274" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C274" s="17" t="str">
+      <c r="C274" s="16" t="str">
         <f>VLOOKUP(B274,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15880,7 +15694,7 @@
       <c r="B275" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C275" s="17" t="str">
+      <c r="C275" s="16" t="str">
         <f>VLOOKUP(B275,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15900,7 +15714,7 @@
       <c r="B276" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C276" s="17" t="str">
+      <c r="C276" s="16" t="str">
         <f>VLOOKUP(B276,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15920,7 +15734,7 @@
       <c r="B277" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C277" s="17" t="str">
+      <c r="C277" s="16" t="str">
         <f>VLOOKUP(B277,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15940,7 +15754,7 @@
       <c r="B278" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C278" s="17" t="str">
+      <c r="C278" s="16" t="str">
         <f>VLOOKUP(B278,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15960,7 +15774,7 @@
       <c r="B279" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C279" s="17" t="str">
+      <c r="C279" s="16" t="str">
         <f>VLOOKUP(B279,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -15980,7 +15794,7 @@
       <c r="B280" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C280" s="17" t="str">
+      <c r="C280" s="16" t="str">
         <f>VLOOKUP(B280,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16000,7 +15814,7 @@
       <c r="B281" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C281" s="17" t="str">
+      <c r="C281" s="16" t="str">
         <f>VLOOKUP(B281,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16020,7 +15834,7 @@
       <c r="B282" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C282" s="17" t="str">
+      <c r="C282" s="16" t="str">
         <f>VLOOKUP(B282,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16040,7 +15854,7 @@
       <c r="B283" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C283" s="17" t="str">
+      <c r="C283" s="16" t="str">
         <f>VLOOKUP(B283,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16060,7 +15874,7 @@
       <c r="B284" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C284" s="17" t="str">
+      <c r="C284" s="16" t="str">
         <f>VLOOKUP(B284,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16080,7 +15894,7 @@
       <c r="B285" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C285" s="17" t="str">
+      <c r="C285" s="16" t="str">
         <f>VLOOKUP(B285,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16100,7 +15914,7 @@
       <c r="B286" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C286" s="17" t="str">
+      <c r="C286" s="16" t="str">
         <f>VLOOKUP(B286,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16120,7 +15934,7 @@
       <c r="B287" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C287" s="17" t="str">
+      <c r="C287" s="16" t="str">
         <f>VLOOKUP(B287,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16140,7 +15954,7 @@
       <c r="B288" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C288" s="17" t="str">
+      <c r="C288" s="16" t="str">
         <f>VLOOKUP(B288,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16160,7 +15974,7 @@
       <c r="B289" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C289" s="17" t="str">
+      <c r="C289" s="16" t="str">
         <f>VLOOKUP(B289,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16180,7 +15994,7 @@
       <c r="B290" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C290" s="17" t="str">
+      <c r="C290" s="16" t="str">
         <f>VLOOKUP(B290,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16200,7 +16014,7 @@
       <c r="B291" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C291" s="17" t="str">
+      <c r="C291" s="16" t="str">
         <f>VLOOKUP(B291,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16220,7 +16034,7 @@
       <c r="B292" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C292" s="17" t="str">
+      <c r="C292" s="16" t="str">
         <f>VLOOKUP(B292,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16240,7 +16054,7 @@
       <c r="B293" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C293" s="17" t="str">
+      <c r="C293" s="16" t="str">
         <f>VLOOKUP(B293,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16260,7 +16074,7 @@
       <c r="B294" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C294" s="17" t="str">
+      <c r="C294" s="16" t="str">
         <f>VLOOKUP(B294,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16280,7 +16094,7 @@
       <c r="B295" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C295" s="17" t="str">
+      <c r="C295" s="16" t="str">
         <f>VLOOKUP(B295,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16300,7 +16114,7 @@
       <c r="B296" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C296" s="17" t="str">
+      <c r="C296" s="16" t="str">
         <f>VLOOKUP(B296,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16320,7 +16134,7 @@
       <c r="B297" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C297" s="17" t="str">
+      <c r="C297" s="16" t="str">
         <f>VLOOKUP(B297,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16340,7 +16154,7 @@
       <c r="B298" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C298" s="17" t="str">
+      <c r="C298" s="16" t="str">
         <f>VLOOKUP(B298,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16360,7 +16174,7 @@
       <c r="B299" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C299" s="17" t="str">
+      <c r="C299" s="16" t="str">
         <f>VLOOKUP(B299,'Food items'!$B$1:$I$78,2,FALSE)</f>
         <v>Vegetable</v>
       </c>
@@ -16387,7 +16201,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18080,7 +17894,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19096,7 +18910,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21787,8 +21601,8 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="AU9" sqref="AU9"/>
-      <selection pane="bottomLeft" activeCell="AU9" sqref="AU9"/>
+      <selection activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23990,7 +23804,7 @@
         <v>7</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66:H97" si="8">IF(G66="","",F66/G66)</f>
+        <f t="shared" ref="H66:H78" si="8">IF(G66="","",F66/G66)</f>
         <v>1.7285714285714284</v>
       </c>
       <c r="I66">
@@ -24396,7 +24210,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
